--- a/Reports/SAOCOM1B_transmitterCBA.xlsx
+++ b/Reports/SAOCOM1B_transmitterCBA.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.64990075334488</v>
+        <v>-71.57602848943586</v>
       </c>
       <c r="C2">
-        <v>21.60870092678563</v>
+        <v>-74.58632844607567</v>
       </c>
       <c r="D2">
-        <v>5.425079538065221e-30</v>
+        <v>0.3332868371111377</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>34.35761856983104</v>
+        <v>-63.74400209742213</v>
       </c>
       <c r="C3">
-        <v>22.31641874327179</v>
+        <v>-66.75430205406194</v>
       </c>
       <c r="D3">
-        <v>1e-30</v>
+        <v>0.3332187770337841</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>34.95287175001573</v>
+        <v>-75.40853371503825</v>
       </c>
       <c r="C4">
-        <v>22.91167192345648</v>
+        <v>-78.41883367167806</v>
       </c>
       <c r="D4">
-        <v>1e-30</v>
+        <v>0.333303424986519</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>35.35694961111478</v>
+        <v>-40.33072408921573</v>
       </c>
       <c r="C5">
-        <v>23.31574978455553</v>
+        <v>-43.34102404585553</v>
       </c>
       <c r="D5">
-        <v>1e-30</v>
+        <v>0.3316363407533768</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>35.50385606802033</v>
+        <v>-39.63364539082762</v>
       </c>
       <c r="C6">
-        <v>23.46265624146108</v>
+        <v>-42.64394534746744</v>
       </c>
       <c r="D6">
-        <v>1e-30</v>
+        <v>0.3314945381170822</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>35.3657562445538</v>
+        <v>-39.30334663843478</v>
       </c>
       <c r="C7">
-        <v>23.32455641799455</v>
+        <v>-42.31364659507459</v>
       </c>
       <c r="D7">
-        <v>1e-30</v>
+        <v>0.3314232688488085</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>34.968093445655</v>
+        <v>-39.43295143386769</v>
       </c>
       <c r="C8">
-        <v>22.92689361909575</v>
+        <v>-42.4432513905075</v>
       </c>
       <c r="D8">
-        <v>1e-30</v>
+        <v>0.3314515574452878</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>34.37570560767842</v>
+        <v>-39.98478359745749</v>
       </c>
       <c r="C9">
-        <v>22.33450578111917</v>
+        <v>-42.99508355409731</v>
       </c>
       <c r="D9">
-        <v>1e-30</v>
+        <v>0.3315673901623383</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.66353841812195</v>
+        <v>-40.82100037613047</v>
       </c>
       <c r="C10">
-        <v>21.6223385915627</v>
+        <v>-43.83130033277028</v>
       </c>
       <c r="D10">
-        <v>4.434247479664277e-30</v>
+        <v>0.3317294733801343</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.57258612977238</v>
+        <v>-41.79420158594538</v>
       </c>
       <c r="C11">
-        <v>21.53138630321313</v>
+        <v>-44.80450154258519</v>
       </c>
       <c r="D11">
-        <v>1.681986561142067e-29</v>
+        <v>0.331899472798313</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.70575634784054</v>
+        <v>-42.80037587380158</v>
       </c>
       <c r="C12">
-        <v>21.66455652128129</v>
+        <v>-45.8106758304414</v>
       </c>
       <c r="D12">
-        <v>2.365612732829581e-30</v>
+        <v>0.3320563105891604</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.03854241623402</v>
+        <v>-43.31457912975397</v>
       </c>
       <c r="C13">
-        <v>22.99734258967478</v>
+        <v>-46.32487908639378</v>
       </c>
       <c r="D13">
-        <v>1e-30</v>
+        <v>0.3321297153836754</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.62262621090457</v>
+        <v>-66.00261455120828</v>
       </c>
       <c r="C14">
-        <v>24.58142638434533</v>
+        <v>-69.01291450784809</v>
       </c>
       <c r="D14">
-        <v>1e-30</v>
+        <v>0.3332450073748061</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>38.52508101755301</v>
+        <v>-62.89581078137089</v>
       </c>
       <c r="C15">
-        <v>26.48388119099376</v>
+        <v>-65.9061107380107</v>
       </c>
       <c r="D15">
-        <v>1e-30</v>
+        <v>0.3332070260078142</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>40.85348963035867</v>
+        <v>-60.68783901314663</v>
       </c>
       <c r="C16">
-        <v>28.81228980379942</v>
+        <v>-63.69813896978644</v>
       </c>
       <c r="D16">
-        <v>1e-30</v>
+        <v>0.3331704685758571</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>43.66210487459657</v>
+        <v>-59.13447728546039</v>
       </c>
       <c r="C17">
-        <v>31.62090504803733</v>
+        <v>-62.1447772421002</v>
       </c>
       <c r="D17">
-        <v>1e-30</v>
+        <v>0.3331385753846528</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>46.34202664067607</v>
+        <v>-71.38897340971266</v>
       </c>
       <c r="C18">
-        <v>34.30082681411682</v>
+        <v>-74.39927336635247</v>
       </c>
       <c r="D18">
-        <v>1e-30</v>
+        <v>0.3332858249314159</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>46.42369442326733</v>
+        <v>-34.47577591810828</v>
       </c>
       <c r="C19">
-        <v>34.38249459670809</v>
+        <v>-37.48607587474809</v>
       </c>
       <c r="D19">
-        <v>1e-30</v>
+        <v>0.3300035271719739</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>43.79634669069851</v>
+        <v>-32.89128419242008</v>
       </c>
       <c r="C20">
-        <v>31.75514686413926</v>
+        <v>-35.90158414905989</v>
       </c>
       <c r="D20">
-        <v>1e-30</v>
+        <v>0.3293372131299989</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>40.97264831841532</v>
+        <v>-33.06472286734675</v>
       </c>
       <c r="C21">
-        <v>28.93144849185607</v>
+        <v>-36.07502282398656</v>
       </c>
       <c r="D21">
-        <v>1e-30</v>
+        <v>0.3294162099683192</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.62508924032633</v>
+        <v>-34.82729977225311</v>
       </c>
       <c r="C22">
-        <v>26.58388941376708</v>
+        <v>-37.83759972889293</v>
       </c>
       <c r="D22">
-        <v>1e-30</v>
+        <v>0.3301355897064816</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -696,13 +696,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.70831341280594</v>
+        <v>-36.9737632343326</v>
       </c>
       <c r="C23">
-        <v>24.66711358624668</v>
+        <v>-39.98406319097241</v>
       </c>
       <c r="D23">
-        <v>1e-30</v>
+        <v>0.3308357237647142</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -710,13 +710,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.11412669939877</v>
+        <v>-38.94523794921738</v>
       </c>
       <c r="C24">
-        <v>23.07292687283952</v>
+        <v>-41.95553790585719</v>
       </c>
       <c r="D24">
-        <v>1e-30</v>
+        <v>0.3313428747608591</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -724,13 +724,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>33.75986642715191</v>
+        <v>-40.64897194325405</v>
       </c>
       <c r="C25">
-        <v>21.71866660059266</v>
+        <v>-43.65927189989386</v>
       </c>
       <c r="D25">
-        <v>1.047925445915101e-30</v>
+        <v>0.3316973918735486</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -738,13 +738,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>33.56780195502691</v>
+        <v>-42.11343549169993</v>
       </c>
       <c r="C26">
-        <v>21.52660212846765</v>
+        <v>-45.12373544833974</v>
       </c>
       <c r="D26">
-        <v>1.802796673375553e-29</v>
+        <v>0.3319512145620908</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>33.67486831201972</v>
+        <v>-43.31298258670405</v>
       </c>
       <c r="C27">
-        <v>21.63366848546047</v>
+        <v>-46.32328254334386</v>
       </c>
       <c r="D27">
-        <v>3.7484113290413e-30</v>
+        <v>0.3321294941292679</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -766,13 +766,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>34.25792861744864</v>
+        <v>-43.30877459250217</v>
       </c>
       <c r="C28">
-        <v>22.21672879088939</v>
+        <v>-46.31907454914198</v>
       </c>
       <c r="D28">
-        <v>1e-30</v>
+        <v>0.3321289107761222</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -780,13 +780,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>34.71029453927732</v>
+        <v>-42.03074216296751</v>
       </c>
       <c r="C29">
-        <v>22.66909471271807</v>
+        <v>-45.04104211960733</v>
       </c>
       <c r="D29">
-        <v>1e-30</v>
+        <v>0.3319379934940474</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -794,13 +794,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>34.96705925428176</v>
+        <v>-40.54338826735566</v>
       </c>
       <c r="C30">
-        <v>22.92585942772252</v>
+        <v>-43.55368822399547</v>
       </c>
       <c r="D30">
-        <v>1e-30</v>
+        <v>0.3316773846457302</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -808,13 +808,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>34.99007335289137</v>
+        <v>-38.80521371121692</v>
       </c>
       <c r="C31">
-        <v>22.94887352633213</v>
+        <v>-41.81551366785673</v>
       </c>
       <c r="D31">
-        <v>1e-30</v>
+        <v>0.3313105273849536</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -822,13 +822,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>34.77642391573721</v>
+        <v>-36.78045561212025</v>
       </c>
       <c r="C32">
-        <v>22.73522408917796</v>
+        <v>-39.79075556876006</v>
       </c>
       <c r="D32">
-        <v>1e-30</v>
+        <v>0.330779517118336</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -836,13 +836,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>34.35983600645814</v>
+        <v>-34.5574411777098</v>
       </c>
       <c r="C33">
-        <v>22.3186361798989</v>
+        <v>-37.56774113434961</v>
       </c>
       <c r="D33">
-        <v>1e-30</v>
+        <v>0.3300346858903156</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -850,13 +850,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>33.79550707938267</v>
+        <v>-32.7359315096398</v>
       </c>
       <c r="C34">
-        <v>21.75430725282343</v>
+        <v>-35.74623146627961</v>
       </c>
       <c r="D34">
-        <v>1e-30</v>
+        <v>0.3292651025439227</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -864,13 +864,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>33.59469755565119</v>
+        <v>-32.63672644245629</v>
       </c>
       <c r="C35">
-        <v>21.55349772909194</v>
+        <v>-35.64702639909611</v>
       </c>
       <c r="D35">
-        <v>1.21945626950998e-29</v>
+        <v>0.3292183749781274</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -878,13 +878,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>33.5741891295333</v>
+        <v>-34.36174745885049</v>
       </c>
       <c r="C36">
-        <v>21.53298930297406</v>
+        <v>-37.3720474154903</v>
       </c>
       <c r="D36">
-        <v>1.643318110829957e-29</v>
+        <v>0.3299595275862547</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -892,13 +892,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>34.74906782192124</v>
+        <v>-70.93910321847389</v>
       </c>
       <c r="C37">
-        <v>22.707867995362</v>
+        <v>-73.9494031751137</v>
       </c>
       <c r="D37">
-        <v>1e-30</v>
+        <v>0.3332832994822962</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -906,13 +906,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>36.04749681567309</v>
+        <v>-59.25277427868339</v>
       </c>
       <c r="C38">
-        <v>24.00629698911384</v>
+        <v>-62.2630742353232</v>
       </c>
       <c r="D38">
-        <v>1e-30</v>
+        <v>0.333141209898263</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -920,13 +920,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>37.44893501432333</v>
+        <v>-60.46532933945723</v>
       </c>
       <c r="C39">
-        <v>25.40773518776408</v>
+        <v>-63.47562929609704</v>
       </c>
       <c r="D39">
-        <v>1e-30</v>
+        <v>0.3331662425099342</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -934,13 +934,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>38.86760155121641</v>
+        <v>-62.40183978803672</v>
       </c>
       <c r="C40">
-        <v>26.82640172465716</v>
+        <v>-65.41213974467654</v>
       </c>
       <c r="D40">
-        <v>1e-30</v>
+        <v>0.3331996346633391</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -948,13 +948,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>40.07525252850663</v>
+        <v>-65.95050992203161</v>
       </c>
       <c r="C41">
-        <v>28.03405270194738</v>
+        <v>-68.96080987867143</v>
       </c>
       <c r="D41">
-        <v>1e-30</v>
+        <v>0.3332444759355734</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -962,13 +962,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>40.67624596240542</v>
+        <v>-43.3100438762507</v>
       </c>
       <c r="C42">
-        <v>28.63504613584617</v>
+        <v>-46.32034383289052</v>
       </c>
       <c r="D42">
-        <v>1e-30</v>
+        <v>0.3321290867663661</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -976,13 +976,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>40.37268399505916</v>
+        <v>-42.34160323684926</v>
       </c>
       <c r="C43">
-        <v>28.33148416849992</v>
+        <v>-45.35190319348907</v>
       </c>
       <c r="D43">
-        <v>1e-30</v>
+        <v>0.3319870481127385</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -990,13 +990,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>39.3225717821807</v>
+        <v>-41.36706835018705</v>
       </c>
       <c r="C44">
-        <v>27.28137195562145</v>
+        <v>-44.37736830682685</v>
       </c>
       <c r="D44">
-        <v>1e-30</v>
+        <v>0.3318272002232988</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>37.93652467886429</v>
+        <v>-40.47902320589182</v>
       </c>
       <c r="C45">
-        <v>25.89532485230504</v>
+        <v>-43.48932316253163</v>
       </c>
       <c r="D45">
-        <v>1e-30</v>
+        <v>0.331665068148827</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>36.50817529448162</v>
+        <v>-39.80258958117148</v>
       </c>
       <c r="C46">
-        <v>24.46697546792237</v>
+        <v>-42.81288953781129</v>
       </c>
       <c r="D46">
-        <v>1e-30</v>
+        <v>0.3315299573246076</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>35.16365440846516</v>
+        <v>-39.48123595448231</v>
       </c>
       <c r="C47">
-        <v>23.12245458190591</v>
+        <v>-42.49153591112212</v>
       </c>
       <c r="D47">
-        <v>1e-30</v>
+        <v>0.3314619889696234</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>33.93880762368852</v>
+        <v>-39.60159062079077</v>
       </c>
       <c r="C48">
-        <v>21.89760779712927</v>
+        <v>-42.61189057743059</v>
       </c>
       <c r="D48">
-        <v>1e-30</v>
+        <v>0.3314877397222875</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>33.70577312862389</v>
+        <v>-40.1290306854502</v>
       </c>
       <c r="C49">
-        <v>21.66457330206464</v>
+        <v>-43.13933064209002</v>
       </c>
       <c r="D49">
-        <v>2.365019151614118e-30</v>
+        <v>0.3315964746929387</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>33.567158864235</v>
+        <v>-40.9349812988718</v>
       </c>
       <c r="C50">
-        <v>21.52595903767575</v>
+        <v>-43.94528125551161</v>
       </c>
       <c r="D50">
-        <v>1.819673829791425e-29</v>
+        <v>0.331750382354785</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>34.72497483726686</v>
+        <v>-67.98008097925735</v>
       </c>
       <c r="C51">
-        <v>22.68377501070761</v>
+        <v>-70.99038093589716</v>
       </c>
       <c r="D51">
-        <v>1e-30</v>
+        <v>0.3332629912801362</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>36.00081947079965</v>
+        <v>-63.63836452739732</v>
       </c>
       <c r="C52">
-        <v>23.9596196442404</v>
+        <v>-66.64866448403713</v>
       </c>
       <c r="D52">
-        <v>1e-30</v>
+        <v>0.3332173752963856</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>37.35007935539404</v>
+        <v>-68.43026577063102</v>
       </c>
       <c r="C53">
-        <v>25.30887952883479</v>
+        <v>-71.44056572727084</v>
       </c>
       <c r="D53">
-        <v>1e-30</v>
+        <v>0.3332665442009863</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>38.66524690730019</v>
+        <v>-62.93930024618185</v>
       </c>
       <c r="C54">
-        <v>26.62404708074094</v>
+        <v>-65.94960020282167</v>
       </c>
       <c r="D54">
-        <v>1e-30</v>
+        <v>0.3332076568365672</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>39.7037771679566</v>
+        <v>-67.57515231384866</v>
       </c>
       <c r="C55">
-        <v>27.66257734139735</v>
+        <v>-70.58545227048847</v>
       </c>
       <c r="D55">
-        <v>1e-30</v>
+        <v>0.3332596343539733</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>40.11328367436122</v>
+        <v>-63.99267533722126</v>
       </c>
       <c r="C56">
-        <v>28.07208384780197</v>
+        <v>-67.00297529386107</v>
       </c>
       <c r="D56">
-        <v>1e-30</v>
+        <v>0.3332220102272857</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>39.70166651563156</v>
+        <v>-39.53127373719726</v>
       </c>
       <c r="C57">
-        <v>27.66046668907231</v>
+        <v>-42.54157369383707</v>
       </c>
       <c r="D57">
-        <v>1e-30</v>
+        <v>0.3314727382654223</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>38.66262332728265</v>
+        <v>-38.32185728230136</v>
       </c>
       <c r="C58">
-        <v>26.6214235007234</v>
+        <v>-41.33215723894118</v>
       </c>
       <c r="D58">
-        <v>1e-30</v>
+        <v>0.3311947727860188</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>37.34847007543853</v>
+        <v>-37.43927399742975</v>
       </c>
       <c r="C59">
-        <v>25.30727024887928</v>
+        <v>-40.44957395406957</v>
       </c>
       <c r="D59">
-        <v>1e-30</v>
+        <v>0.3309660531629828</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>36.00103481249052</v>
+        <v>-37.18850071460298</v>
       </c>
       <c r="C60">
-        <v>23.95983498593127</v>
+        <v>-40.19880067124279</v>
       </c>
       <c r="D60">
-        <v>1e-30</v>
+        <v>0.3308967123297601</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>34.72733693450439</v>
+        <v>-37.681602351698</v>
       </c>
       <c r="C61">
-        <v>22.68613710794515</v>
+        <v>-40.6919023083378</v>
       </c>
       <c r="D61">
-        <v>1e-30</v>
+        <v>0.3310311836704115</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>33.68711291928524</v>
+        <v>-38.71062676953273</v>
       </c>
       <c r="C62">
-        <v>21.645913092726</v>
+        <v>-41.72092672617254</v>
       </c>
       <c r="D62">
-        <v>3.124427244889117e-30</v>
+        <v>0.3312883796455018</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>33.66738946661962</v>
+        <v>-39.96999626502497</v>
       </c>
       <c r="C63">
-        <v>21.62618964006038</v>
+        <v>-42.98029622166478</v>
       </c>
       <c r="D63">
-        <v>4.188298165514291e-30</v>
+        <v>0.3315643812080503</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>34.60855131610713</v>
+        <v>-41.25577157745533</v>
       </c>
       <c r="C64">
-        <v>22.56735148954789</v>
+        <v>-44.26607153409515</v>
       </c>
       <c r="D64">
-        <v>1e-30</v>
+        <v>0.3318077774036347</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>35.5227208196705</v>
+        <v>-42.475408329976</v>
       </c>
       <c r="C65">
-        <v>23.48152099311125</v>
+        <v>-45.48570828661581</v>
       </c>
       <c r="D65">
-        <v>1e-30</v>
+        <v>0.3320076283775197</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>36.32107010738517</v>
+        <v>-43.31552464254432</v>
       </c>
       <c r="C66">
-        <v>24.27987028082593</v>
+        <v>-46.32582459918413</v>
       </c>
       <c r="D66">
-        <v>1e-30</v>
+        <v>0.3321298463969057</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>36.88147332574027</v>
+        <v>-77.97856515323322</v>
       </c>
       <c r="C67">
-        <v>24.84027349918103</v>
+        <v>-80.98886510987305</v>
       </c>
       <c r="D67">
-        <v>1e-30</v>
+        <v>0.3333110853404702</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>37.08210711643259</v>
+        <v>-68.97932583695435</v>
       </c>
       <c r="C68">
-        <v>25.04090728987334</v>
+        <v>-71.98962579359416</v>
       </c>
       <c r="D68">
-        <v>1e-30</v>
+        <v>0.3332706354616294</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>36.87019291674952</v>
+        <v>-63.69378689962906</v>
       </c>
       <c r="C69">
-        <v>24.82899309019027</v>
+        <v>-66.70408685626887</v>
       </c>
       <c r="D69">
-        <v>1e-30</v>
+        <v>0.3332181128384739</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>36.30047025897202</v>
+        <v>-59.57298631973713</v>
       </c>
       <c r="C70">
-        <v>24.25927043241277</v>
+        <v>-62.58328627637695</v>
       </c>
       <c r="D70">
-        <v>1e-30</v>
+        <v>0.3331481637097893</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>35.49538344704249</v>
+        <v>-72.89391207265102</v>
       </c>
       <c r="C71">
-        <v>23.45418362048324</v>
+        <v>-75.90421202929083</v>
       </c>
       <c r="D71">
-        <v>1e-30</v>
+        <v>0.3332933827164743</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>34.57654559877496</v>
+        <v>-36.35736804940515</v>
       </c>
       <c r="C72">
-        <v>22.53534577221571</v>
+        <v>-39.36766800604496</v>
       </c>
       <c r="D72">
-        <v>1e-30</v>
+        <v>0.3306520461307964</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>33.62953036174579</v>
+        <v>-35.74041910971921</v>
       </c>
       <c r="C73">
-        <v>21.58833053518654</v>
+        <v>-38.75071906635902</v>
       </c>
       <c r="D73">
-        <v>7.323607862891866e-30</v>
+        <v>0.3304546780646223</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>33.56905279485836</v>
+        <v>-36.12958577768052</v>
       </c>
       <c r="C74">
-        <v>21.52785296829911</v>
+        <v>-39.13988573432033</v>
       </c>
       <c r="D74">
-        <v>1.770409937842396e-29</v>
+        <v>0.330580803385859</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>33.70772083506581</v>
+        <v>-37.30297106972918</v>
       </c>
       <c r="C75">
-        <v>21.66652100850656</v>
+        <v>-40.313271026369</v>
       </c>
       <c r="D75">
-        <v>2.297110764595887e-30</v>
+        <v>0.3309286127333214</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>35.02242720244151</v>
+        <v>-38.78521631562543</v>
       </c>
       <c r="C76">
-        <v>22.98122737588226</v>
+        <v>-41.79551627226523</v>
       </c>
       <c r="D76">
-        <v>1e-30</v>
+        <v>0.3313058650337936</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>36.56148923833866</v>
+        <v>-40.27294892897882</v>
       </c>
       <c r="C77">
-        <v>24.52028941177941</v>
+        <v>-43.28324888561863</v>
       </c>
       <c r="D77">
-        <v>1e-30</v>
+        <v>0.331625015549686</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>38.3746077442414</v>
+        <v>-41.65100589423506</v>
       </c>
       <c r="C78">
-        <v>26.33340791768215</v>
+        <v>-44.66130585087488</v>
       </c>
       <c r="D78">
-        <v>1e-30</v>
+        <v>0.3318756384625263</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>40.5108658567114</v>
+        <v>-42.89387048901206</v>
       </c>
       <c r="C79">
-        <v>28.46966603015215</v>
+        <v>-45.90417044565187</v>
       </c>
       <c r="D79">
-        <v>1e-30</v>
+        <v>0.3320699825992729</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>42.88376571432833</v>
+        <v>-43.30976923914087</v>
       </c>
       <c r="C80">
-        <v>30.84256588776908</v>
+        <v>-46.32006919578068</v>
       </c>
       <c r="D80">
-        <v>1e-30</v>
+        <v>0.3321290486892343</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>44.78113379492576</v>
+        <v>-43.28279205005225</v>
       </c>
       <c r="C81">
-        <v>32.73993396836651</v>
+        <v>-46.29309200669206</v>
       </c>
       <c r="D81">
-        <v>1e-30</v>
+        <v>0.3321253025565121</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>44.64772713584145</v>
+        <v>-42.74339257752921</v>
       </c>
       <c r="C82">
-        <v>32.6065273092822</v>
+        <v>-45.75369253416902</v>
       </c>
       <c r="D82">
-        <v>1e-30</v>
+        <v>0.3320479052762877</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>42.63104244366411</v>
+        <v>-42.34241424357098</v>
       </c>
       <c r="C83">
-        <v>30.58984261710487</v>
+        <v>-45.35271420021079</v>
       </c>
       <c r="D83">
-        <v>1e-30</v>
+        <v>0.3319871738092547</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>40.27099923200618</v>
+        <v>-42.13268334429236</v>
       </c>
       <c r="C84">
-        <v>28.22979940544693</v>
+        <v>-45.14298330093217</v>
       </c>
       <c r="D84">
-        <v>1e-30</v>
+        <v>0.3319542739062712</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>38.1739552220914</v>
+        <v>-42.14549996466475</v>
       </c>
       <c r="C85">
-        <v>26.13275539553215</v>
+        <v>-45.15579992130456</v>
       </c>
       <c r="D85">
-        <v>1e-30</v>
+        <v>0.3319563072834051</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>36.39714788204054</v>
+        <v>-70.25548056078348</v>
       </c>
       <c r="C86">
-        <v>24.35594805548129</v>
+        <v>-73.26578051742329</v>
       </c>
       <c r="D86">
-        <v>1e-30</v>
+        <v>0.3332792024562944</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>34.88770838304271</v>
+        <v>-63.22577020646719</v>
       </c>
       <c r="C87">
-        <v>22.84650855648346</v>
+        <v>-66.236070163107</v>
       </c>
       <c r="D87">
-        <v>1e-30</v>
+        <v>0.3332117341749045</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>33.58865376840547</v>
+        <v>-70.9187371503179</v>
       </c>
       <c r="C88">
-        <v>21.54745394184622</v>
+        <v>-73.92903710695771</v>
       </c>
       <c r="D88">
-        <v>1.331708075375765e-29</v>
+        <v>0.3332831820287691</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>33.56958548187657</v>
+        <v>-43.31061473170628</v>
       </c>
       <c r="C89">
-        <v>21.52838565531733</v>
+        <v>-46.32091468834609</v>
       </c>
       <c r="D89">
-        <v>1.75679210442031e-29</v>
+        <v>0.3321291659089138</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>33.57116008484864</v>
+        <v>-41.99630684694969</v>
       </c>
       <c r="C90">
-        <v>21.52996025828939</v>
+        <v>-45.00660680358951</v>
       </c>
       <c r="D90">
-        <v>1.717138233449441e-29</v>
+        <v>0.3319324507232639</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>34.83191704836553</v>
+        <v>-40.44715941731041</v>
       </c>
       <c r="C91">
-        <v>22.79071722180629</v>
+        <v>-43.45745937395022</v>
       </c>
       <c r="D91">
-        <v>1e-30</v>
+        <v>0.3316589370360846</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>36.2864300237065</v>
+        <v>-38.59221668474197</v>
       </c>
       <c r="C92">
-        <v>24.24523019714725</v>
+        <v>-41.60251664138179</v>
       </c>
       <c r="D92">
-        <v>1e-30</v>
+        <v>0.3312603115631821</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>37.9634930755853</v>
+        <v>-36.32800790759627</v>
       </c>
       <c r="C93">
-        <v>25.92229324902605</v>
+        <v>-39.33830786423609</v>
       </c>
       <c r="D93">
-        <v>1e-30</v>
+        <v>0.3306429677875557</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>39.86878235610518</v>
+        <v>-33.58671039956063</v>
       </c>
       <c r="C94">
-        <v>27.82758252954593</v>
+        <v>-36.59701035620044</v>
       </c>
       <c r="D94">
-        <v>1e-30</v>
+        <v>0.3296446646299692</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>41.86100665661171</v>
+        <v>-30.83569792457919</v>
       </c>
       <c r="C95">
-        <v>29.81980683005246</v>
+        <v>-33.84599788121901</v>
       </c>
       <c r="D95">
-        <v>1e-30</v>
+        <v>0.328270332893052</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>43.34812080564667</v>
+        <v>-30.34909387656724</v>
       </c>
       <c r="C96">
-        <v>31.30692097908743</v>
+        <v>-33.35939383320705</v>
       </c>
       <c r="D96">
-        <v>1e-30</v>
+        <v>0.3279786344050772</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>43.32476101227178</v>
+        <v>-32.78682792864978</v>
       </c>
       <c r="C97">
-        <v>31.28356118571253</v>
+        <v>-35.79712788528959</v>
       </c>
       <c r="D97">
-        <v>1e-30</v>
+        <v>0.3292888694765506</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>41.80962517730997</v>
+        <v>-35.63166906641742</v>
       </c>
       <c r="C98">
-        <v>29.76842535075072</v>
+        <v>-38.64196902305724</v>
       </c>
       <c r="D98">
-        <v>1e-30</v>
+        <v>0.3304184112763473</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>39.81095942300118</v>
+        <v>-59.14605498822429</v>
       </c>
       <c r="C99">
-        <v>27.76975959644193</v>
+        <v>-62.1563549448641</v>
       </c>
       <c r="D99">
-        <v>1e-30</v>
+        <v>0.3331388348108278</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>37.90627062389973</v>
+        <v>-66.48419132344549</v>
       </c>
       <c r="C100">
-        <v>25.86507079734048</v>
+        <v>-69.4944912800853</v>
       </c>
       <c r="D100">
-        <v>1e-30</v>
+        <v>0.3332497711995298</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>36.23064016839437</v>
+        <v>-78.26189521848795</v>
       </c>
       <c r="C101">
-        <v>24.18944034183513</v>
+        <v>-81.27219517512778</v>
       </c>
       <c r="D101">
-        <v>1e-30</v>
+        <v>0.3333117993519474</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>34.77690903633652</v>
+        <v>-78.02599361626979</v>
       </c>
       <c r="C102">
-        <v>22.73570920977727</v>
+        <v>-81.03629357290959</v>
       </c>
       <c r="D102">
-        <v>1e-30</v>
+        <v>0.3333112064924199</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>33.70808998406125</v>
+        <v>-73.06869182852148</v>
       </c>
       <c r="C103">
-        <v>21.666890157502</v>
+        <v>-76.07899178516129</v>
       </c>
       <c r="D103">
-        <v>2.284458273043397e-30</v>
+        <v>0.3332941785791557</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>33.56837713376767</v>
+        <v>-43.30695474576749</v>
       </c>
       <c r="C104">
-        <v>21.52717730720843</v>
+        <v>-46.3172547024073</v>
       </c>
       <c r="D104">
-        <v>1.787832367964114e-29</v>
+        <v>0.3321286584036891</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>34.59147238208401</v>
+        <v>-42.55392674109721</v>
       </c>
       <c r="C105">
-        <v>22.55027255552475</v>
+        <v>-45.56422669773703</v>
       </c>
       <c r="D105">
-        <v>1e-30</v>
+        <v>0.3320195583391139</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1858,139 +1858,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>35.64436294665508</v>
+        <v>-42.50569911594141</v>
       </c>
       <c r="C106">
-        <v>23.60316312009583</v>
+        <v>-45.51599907258122</v>
       </c>
       <c r="D106">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>36.64439127766328</v>
-      </c>
-      <c r="C107">
-        <v>24.60319145110403</v>
-      </c>
-      <c r="D107">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>37.46110424961881</v>
-      </c>
-      <c r="C108">
-        <v>25.41990442305956</v>
-      </c>
-      <c r="D108">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>37.92105088221809</v>
-      </c>
-      <c r="C109">
-        <v>25.87985105565885</v>
-      </c>
-      <c r="D109">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>37.89096411627404</v>
-      </c>
-      <c r="C110">
-        <v>25.84976428971479</v>
-      </c>
-      <c r="D110">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>37.38095073612151</v>
-      </c>
-      <c r="C111">
-        <v>25.33975090956226</v>
-      </c>
-      <c r="D111">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>36.53563504906437</v>
-      </c>
-      <c r="C112">
-        <v>24.49443522250512</v>
-      </c>
-      <c r="D112">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>35.52616427514922</v>
-      </c>
-      <c r="C113">
-        <v>23.48496444858998</v>
-      </c>
-      <c r="D113">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>34.4757041877189</v>
-      </c>
-      <c r="C114">
-        <v>22.43450436115966</v>
-      </c>
-      <c r="D114">
-        <v>1e-30</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>33.67495037954053</v>
-      </c>
-      <c r="C115">
-        <v>21.63375055298129</v>
-      </c>
-      <c r="D115">
-        <v>3.743846018658762e-30</v>
+        <v>0.3320122434920958</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/SAOCOM1B_transmitterCBA.xlsx
+++ b/Reports/SAOCOM1B_transmitterCBA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y685"/>
+  <dimension ref="A1:Z685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,11 @@
           <t>Alt</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Modulation</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -633,6 +638,11 @@
       <c r="Y2" t="n">
         <v>641.9768210507949</v>
       </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -712,6 +722,11 @@
       <c r="Y3" t="n">
         <v>641.7683278146221</v>
       </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -791,6 +806,11 @@
       <c r="Y4" t="n">
         <v>641.5418576063539</v>
       </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -870,6 +890,11 @@
       <c r="Y5" t="n">
         <v>641.313745172879</v>
       </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -949,6 +974,11 @@
       <c r="Y6" t="n">
         <v>641.0840813132778</v>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1028,6 +1058,11 @@
       <c r="Y7" t="n">
         <v>640.8529573731295</v>
       </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1107,6 +1142,11 @@
       <c r="Y8" t="n">
         <v>640.6204652050357</v>
       </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1186,6 +1226,11 @@
       <c r="Y9" t="n">
         <v>640.3866971283364</v>
       </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1265,6 +1310,11 @@
       <c r="Y10" t="n">
         <v>640.151745888764</v>
       </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1344,6 +1394,11 @@
       <c r="Y11" t="n">
         <v>639.9157046180168</v>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1423,6 +1478,11 @@
       <c r="Y12" t="n">
         <v>639.6786667929038</v>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1502,6 +1562,11 @@
       <c r="Y13" t="n">
         <v>639.4407261944043</v>
       </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1581,6 +1646,11 @@
       <c r="Y14" t="n">
         <v>639.2019768663367</v>
       </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1660,6 +1730,11 @@
       <c r="Y15" t="n">
         <v>638.9625130744337</v>
       </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1739,6 +1814,11 @@
       <c r="Y16" t="n">
         <v>638.7224292643643</v>
       </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1818,6 +1898,11 @@
       <c r="Y17" t="n">
         <v>638.4818200206309</v>
       </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1897,6 +1982,11 @@
       <c r="Y18" t="n">
         <v>638.2407800244778</v>
       </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1976,6 +2066,11 @@
       <c r="Y19" t="n">
         <v>637.9994040122342</v>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2055,6 +2150,11 @@
       <c r="Y20" t="n">
         <v>637.7577867335768</v>
       </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2134,6 +2234,11 @@
       <c r="Y21" t="n">
         <v>637.5160229094089</v>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2213,6 +2318,11 @@
       <c r="Y22" t="n">
         <v>637.2742071900425</v>
       </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2292,6 +2402,11 @@
       <c r="Y23" t="n">
         <v>637.0324341131391</v>
       </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2371,6 +2486,11 @@
       <c r="Y24" t="n">
         <v>636.790798061883</v>
       </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2450,6 +2570,11 @@
       <c r="Y25" t="n">
         <v>636.5493932228767</v>
       </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2529,6 +2654,11 @@
       <c r="Y26" t="n">
         <v>636.3083135443633</v>
       </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2608,6 +2738,11 @@
       <c r="Y27" t="n">
         <v>636.0676526944674</v>
       </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2687,6 +2822,11 @@
       <c r="Y28" t="n">
         <v>635.8275040191785</v>
       </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2766,6 +2906,11 @@
       <c r="Y29" t="n">
         <v>635.5879605011177</v>
       </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2845,6 +2990,11 @@
       <c r="Y30" t="n">
         <v>635.3491147177272</v>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2924,6 +3074,11 @@
       <c r="Y31" t="n">
         <v>635.1110588000018</v>
       </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3002,6 +3157,11 @@
       </c>
       <c r="Y32" t="n">
         <v>634.8738843912465</v>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3082,6 +3242,11 @@
       <c r="Y33" t="n">
         <v>634.6376826061363</v>
       </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3161,6 +3326,11 @@
       <c r="Y34" t="n">
         <v>634.4025439898946</v>
       </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3240,6 +3410,11 @@
       <c r="Y35" t="n">
         <v>634.1685584776342</v>
       </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3319,6 +3494,11 @@
       <c r="Y36" t="n">
         <v>633.9358153541032</v>
       </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3398,6 +3578,11 @@
       <c r="Y37" t="n">
         <v>633.7044032135186</v>
       </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3477,6 +3662,11 @@
       <c r="Y38" t="n">
         <v>633.4744099198657</v>
       </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3556,6 +3746,11 @@
       <c r="Y39" t="n">
         <v>633.2459225673556</v>
       </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3635,6 +3830,11 @@
       <c r="Y40" t="n">
         <v>633.0190274412998</v>
       </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3714,6 +3914,11 @@
       <c r="Y41" t="n">
         <v>632.7938099793307</v>
       </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3793,6 +3998,11 @@
       <c r="Y42" t="n">
         <v>632.5703547327414</v>
       </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3872,6 +4082,11 @@
       <c r="Y43" t="n">
         <v>632.3487453287316</v>
       </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3951,6 +4166,11 @@
       <c r="Y44" t="n">
         <v>632.1290644325468</v>
       </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4030,6 +4250,11 @@
       <c r="Y45" t="n">
         <v>631.9113937103562</v>
       </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4109,6 +4334,11 @@
       <c r="Y46" t="n">
         <v>631.6958137922329</v>
       </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4188,6 +4418,11 @@
       <c r="Y47" t="n">
         <v>631.4824042361344</v>
       </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4267,6 +4502,11 @@
       <c r="Y48" t="n">
         <v>631.2712434919032</v>
       </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4346,6 +4586,11 @@
       <c r="Y49" t="n">
         <v>631.0624088657667</v>
       </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4425,6 +4670,11 @@
       <c r="Y50" t="n">
         <v>630.8559764858576</v>
       </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4504,6 +4754,11 @@
       <c r="Y51" t="n">
         <v>630.7526458028897</v>
       </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4583,6 +4838,11 @@
       <c r="Y52" t="n">
         <v>626.757513758216</v>
       </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4662,6 +4922,11 @@
       <c r="Y53" t="n">
         <v>626.886238150689</v>
       </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4741,6 +5006,11 @@
       <c r="Y54" t="n">
         <v>627.0274058807561</v>
       </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4820,6 +5090,11 @@
       <c r="Y55" t="n">
         <v>627.1722858172462</v>
       </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4899,6 +5174,11 @@
       <c r="Y56" t="n">
         <v>627.3208335757271</v>
       </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4978,6 +5258,11 @@
       <c r="Y57" t="n">
         <v>627.4730030060691</v>
       </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5057,6 +5342,11 @@
       <c r="Y58" t="n">
         <v>627.6287462124845</v>
       </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -5136,6 +5426,11 @@
       <c r="Y59" t="n">
         <v>627.7880135743762</v>
       </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -5215,6 +5510,11 @@
       <c r="Y60" t="n">
         <v>627.9507537679875</v>
       </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -5294,6 +5594,11 @@
       <c r="Y61" t="n">
         <v>628.1169137890616</v>
       </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -5373,6 +5678,11 @@
       <c r="Y62" t="n">
         <v>628.2864389761548</v>
       </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -5452,6 +5762,11 @@
       <c r="Y63" t="n">
         <v>628.4592730346534</v>
       </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -5531,6 +5846,11 @@
       <c r="Y64" t="n">
         <v>628.6353580618829</v>
       </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -5610,6 +5930,11 @@
       <c r="Y65" t="n">
         <v>628.8146345728172</v>
       </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -5689,6 +6014,11 @@
       <c r="Y66" t="n">
         <v>628.9970415263222</v>
       </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -5768,6 +6098,11 @@
       <c r="Y67" t="n">
         <v>629.1825163525293</v>
       </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -5847,6 +6182,11 @@
       <c r="Y68" t="n">
         <v>629.3709949808036</v>
       </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -5926,6 +6266,11 @@
       <c r="Y69" t="n">
         <v>629.5624118682322</v>
       </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -6005,6 +6350,11 @@
       <c r="Y70" t="n">
         <v>629.7567000290584</v>
       </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -6084,6 +6434,11 @@
       <c r="Y71" t="n">
         <v>629.9537910646882</v>
       </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -6163,6 +6518,11 @@
       <c r="Y72" t="n">
         <v>630.1536151942477</v>
       </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -6242,6 +6602,11 @@
       <c r="Y73" t="n">
         <v>630.3561012861387</v>
       </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -6321,6 +6686,11 @@
       <c r="Y74" t="n">
         <v>630.5611768898235</v>
       </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -6400,6 +6770,11 @@
       <c r="Y75" t="n">
         <v>630.7687682682501</v>
       </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -6479,6 +6854,11 @@
       <c r="Y76" t="n">
         <v>630.9788004314048</v>
       </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -6558,6 +6938,11 @@
       <c r="Y77" t="n">
         <v>631.1911971697158</v>
       </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -6637,6 +7022,11 @@
       <c r="Y78" t="n">
         <v>631.4058810883694</v>
       </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -6716,6 +7106,11 @@
       <c r="Y79" t="n">
         <v>631.622773642286</v>
       </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -6795,6 +7190,11 @@
       <c r="Y80" t="n">
         <v>631.8417951714091</v>
       </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -6874,6 +7274,11 @@
       <c r="Y81" t="n">
         <v>632.062864936545</v>
       </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -6953,6 +7358,11 @@
       <c r="Y82" t="n">
         <v>632.2859011555827</v>
       </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -7032,6 +7442,11 @@
       <c r="Y83" t="n">
         <v>632.5108210406311</v>
       </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -7111,6 +7526,11 @@
       <c r="Y84" t="n">
         <v>632.7375408348701</v>
       </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -7190,6 +7610,11 @@
       <c r="Y85" t="n">
         <v>632.9659758504805</v>
       </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -7269,6 +7694,11 @@
       <c r="Y86" t="n">
         <v>633.1960405066147</v>
       </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -7348,6 +7778,11 @@
       <c r="Y87" t="n">
         <v>633.4276483679647</v>
       </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -7427,6 +7862,11 @@
       <c r="Y88" t="n">
         <v>633.6607121834413</v>
       </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -7506,6 +7946,11 @@
       <c r="Y89" t="n">
         <v>633.8951439254978</v>
       </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -7585,6 +8030,11 @@
       <c r="Y90" t="n">
         <v>634.1308548295505</v>
       </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -7664,6 +8114,11 @@
       <c r="Y91" t="n">
         <v>634.367755433863</v>
       </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -7743,6 +8198,11 @@
       <c r="Y92" t="n">
         <v>634.6057556196196</v>
       </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -7822,6 +8282,11 @@
       <c r="Y93" t="n">
         <v>634.8447646511852</v>
       </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -7901,6 +8366,11 @@
       <c r="Y94" t="n">
         <v>635.0846912169498</v>
       </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -7980,6 +8450,11 @@
       <c r="Y95" t="n">
         <v>635.3254434700144</v>
       </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -8059,6 +8534,11 @@
       <c r="Y96" t="n">
         <v>635.5669290691984</v>
       </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -8138,6 +8618,11 @@
       <c r="Y97" t="n">
         <v>635.8090552204387</v>
       </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -8217,6 +8702,11 @@
       <c r="Y98" t="n">
         <v>636.0517287181019</v>
       </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -8296,6 +8786,11 @@
       <c r="Y99" t="n">
         <v>636.2948559864727</v>
       </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -8375,6 +8870,11 @@
       <c r="Y100" t="n">
         <v>636.5383431215261</v>
       </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -8454,6 +8954,11 @@
       <c r="Y101" t="n">
         <v>636.7820959327192</v>
       </c>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -8533,6 +9038,11 @@
       <c r="Y102" t="n">
         <v>637.0260199847473</v>
       </c>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -8612,6 +9122,11 @@
       <c r="Y103" t="n">
         <v>637.2700206395563</v>
       </c>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -8691,6 +9206,11 @@
       <c r="Y104" t="n">
         <v>637.5140030984646</v>
       </c>
+      <c r="Z104" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -8770,6 +9290,11 @@
       <c r="Y105" t="n">
         <v>637.7578724437673</v>
       </c>
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -8849,6 +9374,11 @@
       <c r="Y106" t="n">
         <v>638.0015336811791</v>
       </c>
+      <c r="Z106" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -8928,6 +9458,11 @@
       <c r="Y107" t="n">
         <v>638.2448917816703</v>
       </c>
+      <c r="Z107" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -9007,6 +9542,11 @@
       <c r="Y108" t="n">
         <v>638.4878517233532</v>
       </c>
+      <c r="Z108" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -9086,6 +9626,11 @@
       <c r="Y109" t="n">
         <v>638.7303185335491</v>
       </c>
+      <c r="Z109" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -9165,6 +9710,11 @@
       <c r="Y110" t="n">
         <v>638.9721973305368</v>
       </c>
+      <c r="Z110" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -9244,6 +9794,11 @@
       <c r="Y111" t="n">
         <v>639.2133933654146</v>
       </c>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -9323,6 +9878,11 @@
       <c r="Y112" t="n">
         <v>639.4538120636379</v>
       </c>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -9402,6 +9962,11 @@
       <c r="Y113" t="n">
         <v>639.6933590665946</v>
       </c>
+      <c r="Z113" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -9481,6 +10046,11 @@
       <c r="Y114" t="n">
         <v>639.9319402730384</v>
       </c>
+      <c r="Z114" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -9560,6 +10130,11 @@
       <c r="Y115" t="n">
         <v>640.1694618803253</v>
       </c>
+      <c r="Z115" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -9639,6 +10214,11 @@
       <c r="Y116" t="n">
         <v>640.4058304252685</v>
       </c>
+      <c r="Z116" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -9718,6 +10298,11 @@
       <c r="Y117" t="n">
         <v>640.640952825188</v>
       </c>
+      <c r="Z117" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -9797,6 +10382,11 @@
       <c r="Y118" t="n">
         <v>640.8747364185479</v>
       </c>
+      <c r="Z118" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -9876,6 +10466,11 @@
       <c r="Y119" t="n">
         <v>641.1070890051498</v>
       </c>
+      <c r="Z119" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -9955,6 +10550,11 @@
       <c r="Y120" t="n">
         <v>641.3379188863793</v>
       </c>
+      <c r="Z120" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -10034,6 +10634,11 @@
       <c r="Y121" t="n">
         <v>641.5671349052013</v>
       </c>
+      <c r="Z121" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -10113,6 +10718,11 @@
       <c r="Y122" t="n">
         <v>641.7946464854648</v>
       </c>
+      <c r="Z122" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -10192,6 +10802,11 @@
       <c r="Y123" t="n">
         <v>642.0203636715258</v>
       </c>
+      <c r="Z123" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -10271,6 +10886,11 @@
       <c r="Y124" t="n">
         <v>642.2441971669485</v>
       </c>
+      <c r="Z124" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -10350,6 +10970,11 @@
       <c r="Y125" t="n">
         <v>642.4660583732541</v>
       </c>
+      <c r="Z125" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -10429,6 +11054,11 @@
       <c r="Y126" t="n">
         <v>642.685859428151</v>
       </c>
+      <c r="Z126" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -10508,6 +11138,11 @@
       <c r="Y127" t="n">
         <v>642.9035132435552</v>
       </c>
+      <c r="Z127" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -10587,6 +11222,11 @@
       <c r="Y128" t="n">
         <v>643.0379710176923</v>
       </c>
+      <c r="Z128" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -10666,6 +11306,11 @@
       <c r="Y129" t="n">
         <v>626.5410678624137</v>
       </c>
+      <c r="Z129" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -10745,6 +11390,11 @@
       <c r="Y130" t="n">
         <v>626.6709778265314</v>
       </c>
+      <c r="Z130" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -10824,6 +11474,11 @@
       <c r="Y131" t="n">
         <v>626.8063290744799</v>
       </c>
+      <c r="Z131" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -10903,6 +11558,11 @@
       <c r="Y132" t="n">
         <v>626.9454581566483</v>
       </c>
+      <c r="Z132" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -10982,6 +11642,11 @@
       <c r="Y133" t="n">
         <v>627.0883234579408</v>
       </c>
+      <c r="Z133" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -11061,6 +11726,11 @@
       <c r="Y134" t="n">
         <v>627.2348815681239</v>
       </c>
+      <c r="Z134" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -11140,6 +11810,11 @@
       <c r="Y135" t="n">
         <v>627.385087300534</v>
       </c>
+      <c r="Z135" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -11219,6 +11894,11 @@
       <c r="Y136" t="n">
         <v>627.5388937117982</v>
       </c>
+      <c r="Z136" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -11298,6 +11978,11 @@
       <c r="Y137" t="n">
         <v>627.6962521220011</v>
       </c>
+      <c r="Z137" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -11377,6 +12062,11 @@
       <c r="Y138" t="n">
         <v>627.8571121361222</v>
       </c>
+      <c r="Z138" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -11456,6 +12146,11 @@
       <c r="Y139" t="n">
         <v>628.021421666078</v>
       </c>
+      <c r="Z139" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -11535,6 +12230,11 @@
       <c r="Y140" t="n">
         <v>628.1891269535624</v>
       </c>
+      <c r="Z140" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -11614,6 +12314,11 @@
       <c r="Y141" t="n">
         <v>628.3601725938773</v>
       </c>
+      <c r="Z141" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -11693,6 +12398,11 @@
       <c r="Y142" t="n">
         <v>628.5345015603802</v>
       </c>
+      <c r="Z142" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -11772,6 +12482,11 @@
       <c r="Y143" t="n">
         <v>628.7120552297223</v>
       </c>
+      <c r="Z143" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -11851,6 +12566,11 @@
       <c r="Y144" t="n">
         <v>628.8927734079366</v>
       </c>
+      <c r="Z144" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -11930,6 +12650,11 @@
       <c r="Y145" t="n">
         <v>629.0765943572877</v>
       </c>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -12009,6 +12734,11 @@
       <c r="Y146" t="n">
         <v>629.2634548236726</v>
       </c>
+      <c r="Z146" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -12088,6 +12818,11 @@
       <c r="Y147" t="n">
         <v>629.4532900649384</v>
       </c>
+      <c r="Z147" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -12167,6 +12902,11 @@
       <c r="Y148" t="n">
         <v>629.6460338799604</v>
       </c>
+      <c r="Z148" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -12246,6 +12986,11 @@
       <c r="Y149" t="n">
         <v>629.8416186380816</v>
       </c>
+      <c r="Z149" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -12325,6 +13070,11 @@
       <c r="Y150" t="n">
         <v>630.039975309463</v>
       </c>
+      <c r="Z150" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -12404,6 +13154,11 @@
       <c r="Y151" t="n">
         <v>630.2410334962682</v>
       </c>
+      <c r="Z151" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -12483,6 +13238,11 @@
       <c r="Y152" t="n">
         <v>630.4447214639805</v>
       </c>
+      <c r="Z152" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -12562,6 +13322,11 @@
       <c r="Y153" t="n">
         <v>630.6509661737748</v>
       </c>
+      <c r="Z153" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -12641,6 +13406,11 @@
       <c r="Y154" t="n">
         <v>630.8596933153635</v>
       </c>
+      <c r="Z154" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -12720,6 +13490,11 @@
       <c r="Y155" t="n">
         <v>631.0708273404053</v>
       </c>
+      <c r="Z155" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -12799,6 +13574,11 @@
       <c r="Y156" t="n">
         <v>631.2842914964202</v>
       </c>
+      <c r="Z156" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -12878,6 +13658,11 @@
       <c r="Y157" t="n">
         <v>631.5000078615006</v>
       </c>
+      <c r="Z157" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -12957,6 +13742,11 @@
       <c r="Y158" t="n">
         <v>631.7178973790925</v>
       </c>
+      <c r="Z158" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -13036,6 +13826,11 @@
       <c r="Y159" t="n">
         <v>631.9378798938035</v>
       </c>
+      <c r="Z159" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -13115,6 +13910,11 @@
       <c r="Y160" t="n">
         <v>632.1598741876018</v>
       </c>
+      <c r="Z160" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -13194,6 +13994,11 @@
       <c r="Y161" t="n">
         <v>632.3837980158945</v>
       </c>
+      <c r="Z161" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -13273,6 +14078,11 @@
       <c r="Y162" t="n">
         <v>632.6095681450313</v>
       </c>
+      <c r="Z162" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -13352,6 +14162,11 @@
       <c r="Y163" t="n">
         <v>632.8371003895037</v>
       </c>
+      <c r="Z163" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -13431,6 +14246,11 @@
       <c r="Y164" t="n">
         <v>633.0663096497599</v>
       </c>
+      <c r="Z164" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -13510,6 +14330,11 @@
       <c r="Y165" t="n">
         <v>633.2971099506553</v>
       </c>
+      <c r="Z165" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -13589,6 +14414,11 @@
       <c r="Y166" t="n">
         <v>633.529414479956</v>
       </c>
+      <c r="Z166" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -13668,6 +14498,11 @@
       <c r="Y167" t="n">
         <v>633.7631356273141</v>
       </c>
+      <c r="Z167" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -13747,6 +14582,11 @@
       <c r="Y168" t="n">
         <v>633.9981850236219</v>
       </c>
+      <c r="Z168" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -13826,6 +14666,11 @@
       <c r="Y169" t="n">
         <v>634.2344735807771</v>
       </c>
+      <c r="Z169" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -13905,6 +14750,11 @@
       <c r="Y170" t="n">
         <v>634.4719115315096</v>
       </c>
+      <c r="Z170" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -13984,6 +14834,11 @@
       <c r="Y171" t="n">
         <v>634.7104084695201</v>
       </c>
+      <c r="Z171" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -14063,6 +14918,11 @@
       <c r="Y172" t="n">
         <v>634.949873390264</v>
       </c>
+      <c r="Z172" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -14142,6 +15002,11 @@
       <c r="Y173" t="n">
         <v>635.1902147313871</v>
       </c>
+      <c r="Z173" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -14221,6 +15086,11 @@
       <c r="Y174" t="n">
         <v>635.4313404136852</v>
       </c>
+      <c r="Z174" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -14300,6 +15170,11 @@
       <c r="Y175" t="n">
         <v>635.6731578825317</v>
       </c>
+      <c r="Z175" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -14379,6 +15254,11 @@
       <c r="Y176" t="n">
         <v>635.9155741488345</v>
       </c>
+      <c r="Z176" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -14458,6 +15338,11 @@
       <c r="Y177" t="n">
         <v>636.1584958307003</v>
       </c>
+      <c r="Z177" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -14537,6 +15422,11 @@
       <c r="Y178" t="n">
         <v>636.4018291949634</v>
       </c>
+      <c r="Z178" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -14616,6 +15506,11 @@
       <c r="Y179" t="n">
         <v>636.6454801990481</v>
       </c>
+      <c r="Z179" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -14695,6 +15590,11 @@
       <c r="Y180" t="n">
         <v>636.8893545326251</v>
       </c>
+      <c r="Z180" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -14774,6 +15674,11 @@
       <c r="Y181" t="n">
         <v>637.1333576595753</v>
       </c>
+      <c r="Z181" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -14853,6 +15758,11 @@
       <c r="Y182" t="n">
         <v>637.3773948599918</v>
       </c>
+      <c r="Z182" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -14932,6 +15842,11 @@
       <c r="Y183" t="n">
         <v>637.6213712721438</v>
       </c>
+      <c r="Z183" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -15011,6 +15926,11 @@
       <c r="Y184" t="n">
         <v>637.8651919345498</v>
       </c>
+      <c r="Z184" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -15090,6 +16010,11 @@
       <c r="Y185" t="n">
         <v>638.1087618277921</v>
       </c>
+      <c r="Z185" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -15169,6 +16094,11 @@
       <c r="Y186" t="n">
         <v>638.351985916731</v>
       </c>
+      <c r="Z186" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -15248,6 +16178,11 @@
       <c r="Y187" t="n">
         <v>638.5947691924123</v>
       </c>
+      <c r="Z187" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -15327,6 +16262,11 @@
       <c r="Y188" t="n">
         <v>638.8370167138688</v>
       </c>
+      <c r="Z188" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -15406,6 +16346,11 @@
       <c r="Y189" t="n">
         <v>639.0786336499556</v>
       </c>
+      <c r="Z189" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -15485,6 +16430,11 @@
       <c r="Y190" t="n">
         <v>639.3195253212142</v>
       </c>
+      <c r="Z190" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -15564,6 +16514,11 @@
       <c r="Y191" t="n">
         <v>639.559597241258</v>
       </c>
+      <c r="Z191" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -15643,6 +16598,11 @@
       <c r="Y192" t="n">
         <v>639.7987551583565</v>
       </c>
+      <c r="Z192" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -15722,6 +16682,11 @@
       <c r="Y193" t="n">
         <v>640.0369050969034</v>
       </c>
+      <c r="Z193" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -15801,6 +16766,11 @@
       <c r="Y194" t="n">
         <v>640.2739533980645</v>
       </c>
+      <c r="Z194" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -15880,6 +16850,11 @@
       <c r="Y195" t="n">
         <v>640.5098067613209</v>
       </c>
+      <c r="Z195" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -15959,6 +16934,11 @@
       <c r="Y196" t="n">
         <v>640.6837891861417</v>
       </c>
+      <c r="Z196" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -16038,6 +17018,11 @@
       <c r="Y197" t="n">
         <v>639.8974022480776</v>
       </c>
+      <c r="Z197" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -16117,6 +17102,11 @@
       <c r="Y198" t="n">
         <v>639.6725255138125</v>
       </c>
+      <c r="Z198" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -16196,6 +17186,11 @@
       <c r="Y199" t="n">
         <v>639.4347775671378</v>
       </c>
+      <c r="Z199" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -16275,6 +17270,11 @@
       <c r="Y200" t="n">
         <v>639.1962326213591</v>
       </c>
+      <c r="Z200" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -16354,6 +17354,11 @@
       <c r="Y201" t="n">
         <v>638.9569849346221</v>
       </c>
+      <c r="Z201" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -16433,6 +17438,11 @@
       <c r="Y202" t="n">
         <v>638.7171289385597</v>
       </c>
+      <c r="Z202" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -16512,6 +17522,11 @@
       <c r="Y203" t="n">
         <v>638.4767591966545</v>
       </c>
+      <c r="Z203" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -16591,6 +17606,11 @@
       <c r="Y204" t="n">
         <v>638.2359703623595</v>
       </c>
+      <c r="Z204" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -16670,6 +17690,11 @@
       <c r="Y205" t="n">
         <v>637.9948571376576</v>
       </c>
+      <c r="Z205" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -16749,6 +17774,11 @@
       <c r="Y206" t="n">
         <v>637.7535142308452</v>
       </c>
+      <c r="Z206" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -16828,6 +17858,11 @@
       <c r="Y207" t="n">
         <v>637.5120363147238</v>
       </c>
+      <c r="Z207" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -16907,6 +17942,11 @@
       <c r="Y208" t="n">
         <v>637.2705179847756</v>
       </c>
+      <c r="Z208" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -16986,6 +18026,11 @@
       <c r="Y209" t="n">
         <v>637.0290537169861</v>
       </c>
+      <c r="Z209" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -17065,6 +18110,11 @@
       <c r="Y210" t="n">
         <v>636.7877378261021</v>
       </c>
+      <c r="Z210" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -17144,6 +18194,11 @@
       <c r="Y211" t="n">
         <v>636.5466644235919</v>
       </c>
+      <c r="Z211" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -17223,6 +18278,11 @@
       <c r="Y212" t="n">
         <v>636.3059273758798</v>
       </c>
+      <c r="Z212" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -17302,6 +18362,11 @@
       <c r="Y213" t="n">
         <v>636.0656202623338</v>
       </c>
+      <c r="Z213" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -17381,6 +18446,11 @@
       <c r="Y214" t="n">
         <v>635.8258363337625</v>
       </c>
+      <c r="Z214" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -17460,6 +18530,11 @@
       <c r="Y215" t="n">
         <v>635.586668470784</v>
       </c>
+      <c r="Z215" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -17539,6 +18614,11 @@
       <c r="Y216" t="n">
         <v>635.3482091422349</v>
       </c>
+      <c r="Z216" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -17618,6 +18698,11 @@
       <c r="Y217" t="n">
         <v>635.1105503639287</v>
       </c>
+      <c r="Z217" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -17697,6 +18782,11 @@
       <c r="Y218" t="n">
         <v>634.8737836575036</v>
       </c>
+      <c r="Z218" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -17776,6 +18866,11 @@
       <c r="Y219" t="n">
         <v>634.6380000093545</v>
       </c>
+      <c r="Z219" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -17855,6 +18950,11 @@
       <c r="Y220" t="n">
         <v>634.4032898299899</v>
       </c>
+      <c r="Z220" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -17934,6 +19034,11 @@
       <c r="Y221" t="n">
         <v>634.1697429133781</v>
       </c>
+      <c r="Z221" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -18013,6 +19118,11 @@
       <c r="Y222" t="n">
         <v>633.9374483967441</v>
       </c>
+      <c r="Z222" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -18092,6 +19202,11 @@
       <c r="Y223" t="n">
         <v>633.7064947205604</v>
       </c>
+      <c r="Z223" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -18171,6 +19286,11 @@
       <c r="Y224" t="n">
         <v>633.4769695886915</v>
       </c>
+      <c r="Z224" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -18250,6 +19370,11 @@
       <c r="Y225" t="n">
         <v>633.2489599291446</v>
       </c>
+      <c r="Z225" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -18329,6 +19454,11 @@
       <c r="Y226" t="n">
         <v>633.02255185483</v>
       </c>
+      <c r="Z226" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -18408,6 +19538,11 @@
       <c r="Y227" t="n">
         <v>632.7978306249129</v>
       </c>
+      <c r="Z227" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -18487,6 +19622,11 @@
       <c r="Y228" t="n">
         <v>632.5748806063218</v>
       </c>
+      <c r="Z228" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -18566,6 +19706,11 @@
       <c r="Y229" t="n">
         <v>632.3537852359848</v>
       </c>
+      <c r="Z229" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -18645,6 +19790,11 @@
       <c r="Y230" t="n">
         <v>632.134626982932</v>
       </c>
+      <c r="Z230" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -18724,6 +19874,11 @@
       <c r="Y231" t="n">
         <v>631.9174873114296</v>
       </c>
+      <c r="Z231" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -18803,6 +19958,11 @@
       <c r="Y232" t="n">
         <v>631.7024466440635</v>
       </c>
+      <c r="Z232" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -18882,6 +20042,11 @@
       <c r="Y233" t="n">
         <v>631.4895843256909</v>
       </c>
+      <c r="Z233" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -18961,6 +20126,11 @@
       <c r="Y234" t="n">
         <v>631.2789785874595</v>
       </c>
+      <c r="Z234" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -19040,6 +20210,11 @@
       <c r="Y235" t="n">
         <v>631.0707065117261</v>
       </c>
+      <c r="Z235" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -19119,6 +20294,11 @@
       <c r="Y236" t="n">
         <v>630.8648439973505</v>
       </c>
+      <c r="Z236" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -19198,6 +20378,11 @@
       <c r="Y237" t="n">
         <v>630.661465725279</v>
       </c>
+      <c r="Z237" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -19277,6 +20462,11 @@
       <c r="Y238" t="n">
         <v>630.46064512516</v>
       </c>
+      <c r="Z238" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -19356,6 +20546,11 @@
       <c r="Y239" t="n">
         <v>630.2624543421264</v>
       </c>
+      <c r="Z239" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -19435,6 +20630,11 @@
       <c r="Y240" t="n">
         <v>630.0669642044966</v>
       </c>
+      <c r="Z240" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -19514,6 +20714,11 @@
       <c r="Y241" t="n">
         <v>629.8742441916822</v>
       </c>
+      <c r="Z241" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -19593,6 +20798,11 @@
       <c r="Y242" t="n">
         <v>629.6843624032198</v>
       </c>
+      <c r="Z242" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -19672,6 +20882,11 @@
       <c r="Y243" t="n">
         <v>629.4973855280807</v>
       </c>
+      <c r="Z243" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -19751,6 +20966,11 @@
       <c r="Y244" t="n">
         <v>629.3133788147373</v>
       </c>
+      <c r="Z244" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -19830,6 +21050,11 @@
       <c r="Y245" t="n">
         <v>629.1324060420425</v>
       </c>
+      <c r="Z245" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -19909,6 +21134,11 @@
       <c r="Y246" t="n">
         <v>628.9545294905273</v>
       </c>
+      <c r="Z246" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -19988,6 +21218,11 @@
       <c r="Y247" t="n">
         <v>628.7798099147918</v>
       </c>
+      <c r="Z247" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -20067,6 +21302,11 @@
       <c r="Y248" t="n">
         <v>628.6083065161936</v>
       </c>
+      <c r="Z248" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -20146,6 +21386,11 @@
       <c r="Y249" t="n">
         <v>628.4400769166157</v>
       </c>
+      <c r="Z249" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -20225,6 +21470,11 @@
       <c r="Y250" t="n">
         <v>628.2751771329605</v>
       </c>
+      <c r="Z250" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -20304,6 +21554,11 @@
       <c r="Y251" t="n">
         <v>628.1136615520388</v>
       </c>
+      <c r="Z251" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -20383,6 +21638,11 @@
       <c r="Y252" t="n">
         <v>627.9555829068108</v>
       </c>
+      <c r="Z252" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -20462,6 +21722,11 @@
       <c r="Y253" t="n">
         <v>627.8009922530288</v>
       </c>
+      <c r="Z253" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -20541,6 +21806,11 @@
       <c r="Y254" t="n">
         <v>627.6499389468181</v>
       </c>
+      <c r="Z254" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -20620,6 +21890,11 @@
       <c r="Y255" t="n">
         <v>627.5024706229655</v>
       </c>
+      <c r="Z255" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -20699,6 +21974,11 @@
       <c r="Y256" t="n">
         <v>627.3880816147852</v>
       </c>
+      <c r="Z256" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -20778,6 +22058,11 @@
       <c r="Y257" t="n">
         <v>643.1729613000247</v>
       </c>
+      <c r="Z257" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -20857,6 +22142,11 @@
       <c r="Y258" t="n">
         <v>642.9640895497298</v>
       </c>
+      <c r="Z258" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -20936,6 +22226,11 @@
       <c r="Y259" t="n">
         <v>642.7481897411211</v>
       </c>
+      <c r="Z259" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -21015,6 +22310,11 @@
       <c r="Y260" t="n">
         <v>642.5301751427694</v>
       </c>
+      <c r="Z260" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -21094,6 +22394,11 @@
       <c r="Y261" t="n">
         <v>642.3101329731257</v>
       </c>
+      <c r="Z261" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -21173,6 +22478,11 @@
       <c r="Y262" t="n">
         <v>642.0881512024796</v>
       </c>
+      <c r="Z262" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -21252,6 +22562,11 @@
       <c r="Y263" t="n">
         <v>641.8643185148944</v>
       </c>
+      <c r="Z263" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -21331,6 +22646,11 @@
       <c r="Y264" t="n">
         <v>641.6387242696235</v>
       </c>
+      <c r="Z264" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -21410,6 +22730,11 @@
       <c r="Y265" t="n">
         <v>641.4114584626009</v>
       </c>
+      <c r="Z265" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -21489,6 +22814,11 @@
       <c r="Y266" t="n">
         <v>641.1826116869939</v>
       </c>
+      <c r="Z266" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -21568,6 +22898,11 @@
       <c r="Y267" t="n">
         <v>640.9522750938344</v>
       </c>
+      <c r="Z267" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -21647,6 +22982,11 @@
       <c r="Y268" t="n">
         <v>640.7205403525204</v>
       </c>
+      <c r="Z268" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -21726,6 +23066,11 @@
       <c r="Y269" t="n">
         <v>640.4874996106295</v>
       </c>
+      <c r="Z269" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -21805,6 +23150,11 @@
       <c r="Y270" t="n">
         <v>640.2532454536888</v>
       </c>
+      <c r="Z270" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -21884,6 +23234,11 @@
       <c r="Y271" t="n">
         <v>640.0178708647254</v>
       </c>
+      <c r="Z271" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -21963,6 +23318,11 @@
       <c r="Y272" t="n">
         <v>639.7814691836359</v>
       </c>
+      <c r="Z272" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -22042,6 +23402,11 @@
       <c r="Y273" t="n">
         <v>639.5441340660296</v>
       </c>
+      <c r="Z273" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -22121,6 +23486,11 @@
       <c r="Y274" t="n">
         <v>639.3059594423547</v>
       </c>
+      <c r="Z274" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -22200,6 +23570,11 @@
       <c r="Y275" t="n">
         <v>639.0670394765741</v>
       </c>
+      <c r="Z275" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -22279,6 +23654,11 @@
       <c r="Y276" t="n">
         <v>638.8274685246404</v>
       </c>
+      <c r="Z276" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -22358,6 +23738,11 @@
       <c r="Y277" t="n">
         <v>638.5873410931061</v>
       </c>
+      <c r="Z277" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -22437,6 +23822,11 @@
       <c r="Y278" t="n">
         <v>638.3467517973164</v>
       </c>
+      <c r="Z278" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -22516,6 +23906,11 @@
       <c r="Y279" t="n">
         <v>638.1057953197146</v>
       </c>
+      <c r="Z279" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -22595,6 +23990,11 @@
       <c r="Y280" t="n">
         <v>637.8645663679821</v>
       </c>
+      <c r="Z280" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -22674,6 +24074,11 @@
       <c r="Y281" t="n">
         <v>637.6231596330656</v>
       </c>
+      <c r="Z281" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -22753,6 +24158,11 @@
       <c r="Y282" t="n">
         <v>637.381669747453</v>
       </c>
+      <c r="Z282" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -22832,6 +24242,11 @@
       <c r="Y283" t="n">
         <v>637.140191243035</v>
       </c>
+      <c r="Z283" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -22911,6 +24326,11 @@
       <c r="Y284" t="n">
         <v>636.8988185091605</v>
       </c>
+      <c r="Z284" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -22990,6 +24410,11 @@
       <c r="Y285" t="n">
         <v>636.6576457507329</v>
       </c>
+      <c r="Z285" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -23069,6 +24494,11 @@
       <c r="Y286" t="n">
         <v>636.4167669464222</v>
       </c>
+      <c r="Z286" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -23148,6 +24578,11 @@
       <c r="Y287" t="n">
         <v>636.176275806657</v>
       </c>
+      <c r="Z287" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -23227,6 +24662,11 @@
       <c r="Y288" t="n">
         <v>635.93626573196</v>
       </c>
+      <c r="Z288" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -23306,6 +24746,11 @@
       <c r="Y289" t="n">
         <v>635.6968297712349</v>
       </c>
+      <c r="Z289" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -23385,6 +24830,11 @@
       <c r="Y290" t="n">
         <v>635.4580605804248</v>
       </c>
+      <c r="Z290" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -23464,6 +24914,11 @@
       <c r="Y291" t="n">
         <v>635.2200503807677</v>
       </c>
+      <c r="Z291" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -23543,6 +24998,11 @@
       <c r="Y292" t="n">
         <v>634.9828909178467</v>
       </c>
+      <c r="Z292" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -23622,6 +25082,11 @@
       <c r="Y293" t="n">
         <v>634.7466734205094</v>
       </c>
+      <c r="Z293" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -23701,6 +25166,11 @@
       <c r="Y294" t="n">
         <v>634.5114885597496</v>
       </c>
+      <c r="Z294" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -23780,6 +25250,11 @@
       <c r="Y295" t="n">
         <v>634.2774264084187</v>
       </c>
+      <c r="Z295" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -23859,6 +25334,11 @@
       <c r="Y296" t="n">
         <v>634.0445764005799</v>
       </c>
+      <c r="Z296" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -23938,6 +25418,11 @@
       <c r="Y297" t="n">
         <v>633.8130272914361</v>
       </c>
+      <c r="Z297" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -24017,6 +25502,11 @@
       <c r="Y298" t="n">
         <v>633.58286711747</v>
       </c>
+      <c r="Z298" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -24096,6 +25586,11 @@
       <c r="Y299" t="n">
         <v>633.3541831569549</v>
       </c>
+      <c r="Z299" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -24175,6 +25670,11 @@
       <c r="Y300" t="n">
         <v>633.127061890511</v>
       </c>
+      <c r="Z300" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -24254,6 +25754,11 @@
       <c r="Y301" t="n">
         <v>632.9015889624995</v>
       </c>
+      <c r="Z301" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -24333,6 +25838,11 @@
       <c r="Y302" t="n">
         <v>632.6778491421766</v>
       </c>
+      <c r="Z302" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -24412,6 +25922,11 @@
       <c r="Y303" t="n">
         <v>632.4559262856862</v>
       </c>
+      <c r="Z303" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -24491,6 +26006,11 @@
       <c r="Y304" t="n">
         <v>632.2359032983304</v>
       </c>
+      <c r="Z304" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -24570,6 +26090,11 @@
       <c r="Y305" t="n">
         <v>632.0178620970999</v>
       </c>
+      <c r="Z305" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -24649,6 +26174,11 @@
       <c r="Y306" t="n">
         <v>631.8018835739025</v>
       </c>
+      <c r="Z306" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -24728,6 +26258,11 @@
       <c r="Y307" t="n">
         <v>631.588047558953</v>
       </c>
+      <c r="Z307" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -24807,6 +26342,11 @@
       <c r="Y308" t="n">
         <v>631.3764327849659</v>
       </c>
+      <c r="Z308" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -24886,6 +26426,11 @@
       <c r="Y309" t="n">
         <v>631.167116851485</v>
       </c>
+      <c r="Z309" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -24965,6 +26510,11 @@
       <c r="Y310" t="n">
         <v>630.9601761901266</v>
       </c>
+      <c r="Z310" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -25044,6 +26594,11 @@
       <c r="Y311" t="n">
         <v>630.7556860300338</v>
       </c>
+      <c r="Z311" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -25123,6 +26678,11 @@
       <c r="Y312" t="n">
         <v>630.5537203638447</v>
       </c>
+      <c r="Z312" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -25202,6 +26762,11 @@
       <c r="Y313" t="n">
         <v>630.3543519147463</v>
       </c>
+      <c r="Z313" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -25281,6 +26846,11 @@
       <c r="Y314" t="n">
         <v>630.1576521034137</v>
       </c>
+      <c r="Z314" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -25360,6 +26930,11 @@
       <c r="Y315" t="n">
         <v>629.9636910159861</v>
       </c>
+      <c r="Z315" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -25439,6 +27014,11 @@
       <c r="Y316" t="n">
         <v>629.7725373726513</v>
       </c>
+      <c r="Z316" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -25518,6 +27098,11 @@
       <c r="Y317" t="n">
         <v>629.5842584966807</v>
       </c>
+      <c r="Z317" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -25597,6 +27182,11 @@
       <c r="Y318" t="n">
         <v>629.3989202842333</v>
       </c>
+      <c r="Z318" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -25676,6 +27266,11 @@
       <c r="Y319" t="n">
         <v>629.2165871748615</v>
       </c>
+      <c r="Z319" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -25755,6 +27350,11 @@
       <c r="Y320" t="n">
         <v>629.0373221226927</v>
       </c>
+      <c r="Z320" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -25834,6 +27434,11 @@
       <c r="Y321" t="n">
         <v>628.8611865681288</v>
       </c>
+      <c r="Z321" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -25913,6 +27518,11 @@
       <c r="Y322" t="n">
         <v>628.688240410626</v>
       </c>
+      <c r="Z322" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -25992,6 +27602,11 @@
       <c r="Y323" t="n">
         <v>628.5185419819084</v>
       </c>
+      <c r="Z323" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -26071,6 +27686,11 @@
       <c r="Y324" t="n">
         <v>628.3521480200194</v>
       </c>
+      <c r="Z324" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -26150,6 +27770,11 @@
       <c r="Y325" t="n">
         <v>628.189113644142</v>
       </c>
+      <c r="Z325" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -26229,6 +27854,11 @@
       <c r="Y326" t="n">
         <v>628.0294923303034</v>
       </c>
+      <c r="Z326" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -26308,6 +27938,11 @@
       <c r="Y327" t="n">
         <v>627.8733358876042</v>
       </c>
+      <c r="Z327" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -26387,6 +28022,11 @@
       <c r="Y328" t="n">
         <v>627.7206944355902</v>
       </c>
+      <c r="Z328" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -26466,6 +28106,11 @@
       <c r="Y329" t="n">
         <v>627.5716163821741</v>
       </c>
+      <c r="Z329" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -26545,6 +28190,11 @@
       <c r="Y330" t="n">
         <v>627.4261484024767</v>
       </c>
+      <c r="Z330" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -26624,6 +28274,11 @@
       <c r="Y331" t="n">
         <v>627.2843354186032</v>
       </c>
+      <c r="Z331" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -26703,6 +28358,11 @@
       <c r="Y332" t="n">
         <v>627.1462205801255</v>
       </c>
+      <c r="Z332" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -26782,6 +28442,11 @@
       <c r="Y333" t="n">
         <v>627.0118452454907</v>
       </c>
+      <c r="Z333" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -26861,6 +28526,11 @@
       <c r="Y334" t="n">
         <v>626.881248964337</v>
       </c>
+      <c r="Z334" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -26940,6 +28610,11 @@
       <c r="Y335" t="n">
         <v>626.7788994161211</v>
       </c>
+      <c r="Z335" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -27019,6 +28694,11 @@
       <c r="Y336" t="n">
         <v>640.4684576750006</v>
       </c>
+      <c r="Z336" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -27098,6 +28778,11 @@
       <c r="Y337" t="n">
         <v>640.2436964249814</v>
       </c>
+      <c r="Z337" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -27177,6 +28862,11 @@
       <c r="Y338" t="n">
         <v>640.008291864753</v>
       </c>
+      <c r="Z338" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -27256,6 +28946,11 @@
       <c r="Y339" t="n">
         <v>639.7718647380932</v>
       </c>
+      <c r="Z339" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -27335,6 +29030,11 @@
       <c r="Y340" t="n">
         <v>639.5345087129688</v>
       </c>
+      <c r="Z340" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -27414,6 +29114,11 @@
       <c r="Y341" t="n">
         <v>639.2963177297418</v>
       </c>
+      <c r="Z341" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -27493,6 +29198,11 @@
       <c r="Y342" t="n">
         <v>639.0573859603689</v>
       </c>
+      <c r="Z342" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -27572,6 +29282,11 @@
       <c r="Y343" t="n">
         <v>638.8178077667168</v>
       </c>
+      <c r="Z343" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -27651,6 +29366,11 @@
       <c r="Y344" t="n">
         <v>638.5776776588764</v>
       </c>
+      <c r="Z344" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -27730,6 +29450,11 @@
       <c r="Y345" t="n">
         <v>638.3370902537943</v>
       </c>
+      <c r="Z345" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -27809,6 +29534,11 @@
       <c r="Y346" t="n">
         <v>638.0961402333339</v>
       </c>
+      <c r="Z346" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -27888,6 +29618,11 @@
       <c r="Y347" t="n">
         <v>637.8549223023582</v>
       </c>
+      <c r="Z347" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -27967,6 +29702,11 @@
       <c r="Y348" t="n">
         <v>637.6135311470179</v>
       </c>
+      <c r="Z348" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -28046,6 +29786,11 @@
       <c r="Y349" t="n">
         <v>637.3720613926921</v>
       </c>
+      <c r="Z349" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -28125,6 +29870,11 @@
       <c r="Y350" t="n">
         <v>637.1306075620018</v>
       </c>
+      <c r="Z350" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -28204,6 +29954,11 @@
       <c r="Y351" t="n">
         <v>636.8892640329974</v>
       </c>
+      <c r="Z351" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -28283,6 +30038,11 @@
       <c r="Y352" t="n">
         <v>636.6481249971292</v>
       </c>
+      <c r="Z352" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -28362,6 +30122,11 @@
       <c r="Y353" t="n">
         <v>636.4072844173545</v>
       </c>
+      <c r="Z353" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -28441,6 +30206,11 @@
       <c r="Y354" t="n">
         <v>636.1668359863504</v>
       </c>
+      <c r="Z354" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -28520,6 +30290,11 @@
       <c r="Y355" t="n">
         <v>635.9268730846807</v>
       </c>
+      <c r="Z355" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -28599,6 +30374,11 @@
       <c r="Y356" t="n">
         <v>635.6874887393175</v>
       </c>
+      <c r="Z356" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -28678,6 +30458,11 @@
       <c r="Y357" t="n">
         <v>635.448775581854</v>
       </c>
+      <c r="Z357" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -28757,6 +30542,11 @@
       <c r="Y358" t="n">
         <v>635.2108258074302</v>
       </c>
+      <c r="Z358" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -28836,6 +30626,11 @@
       <c r="Y359" t="n">
         <v>634.9737311331645</v>
       </c>
+      <c r="Z359" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -28915,6 +30710,11 @@
       <c r="Y360" t="n">
         <v>634.7375827573508</v>
       </c>
+      <c r="Z360" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -28994,6 +30794,11 @@
       <c r="Y361" t="n">
         <v>634.5024713186315</v>
       </c>
+      <c r="Z361" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -29073,6 +30878,11 @@
       <c r="Y362" t="n">
         <v>634.2684868550216</v>
       </c>
+      <c r="Z362" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -29152,6 +30962,11 @@
       <c r="Y363" t="n">
         <v>634.0357187639765</v>
       </c>
+      <c r="Z363" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -29231,6 +31046,11 @@
       <c r="Y364" t="n">
         <v>633.8042557620212</v>
       </c>
+      <c r="Z364" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -29310,6 +31130,11 @@
       <c r="Y365" t="n">
         <v>633.5741858449031</v>
       </c>
+      <c r="Z365" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -29389,6 +31214,11 @@
       <c r="Y366" t="n">
         <v>633.5634328321405</v>
       </c>
+      <c r="Z366" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -29468,6 +31298,11 @@
       <c r="Y367" t="n">
         <v>632.6388628380681</v>
       </c>
+      <c r="Z367" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -29547,6 +31382,11 @@
       <c r="Y368" t="n">
         <v>632.8568997409983</v>
       </c>
+      <c r="Z368" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -29626,6 +31466,11 @@
       <c r="Y369" t="n">
         <v>633.0869275395529</v>
       </c>
+      <c r="Z369" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -29705,6 +31550,11 @@
       <c r="Y370" t="n">
         <v>633.3185267412916</v>
       </c>
+      <c r="Z370" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -29784,6 +31634,11 @@
       <c r="Y371" t="n">
         <v>633.5516102608726</v>
       </c>
+      <c r="Z371" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -29863,6 +31718,11 @@
       <c r="Y372" t="n">
         <v>633.7860902252851</v>
       </c>
+      <c r="Z372" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -29942,6 +31802,11 @@
       <c r="Y373" t="n">
         <v>634.021878013329</v>
       </c>
+      <c r="Z373" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -30021,6 +31886,11 @@
       <c r="Y374" t="n">
         <v>634.2588842954104</v>
       </c>
+      <c r="Z374" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -30100,6 +31970,11 @@
       <c r="Y375" t="n">
         <v>634.4970190733359</v>
       </c>
+      <c r="Z375" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -30179,6 +32054,11 @@
       <c r="Y376" t="n">
         <v>634.7361917209842</v>
       </c>
+      <c r="Z376" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -30258,6 +32138,11 @@
       <c r="Y377" t="n">
         <v>634.9763110245824</v>
       </c>
+      <c r="Z377" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -30337,6 +32222,11 @@
       <c r="Y378" t="n">
         <v>635.2172852236239</v>
       </c>
+      <c r="Z378" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -30416,6 +32306,11 @@
       <c r="Y379" t="n">
         <v>635.4590220517816</v>
       </c>
+      <c r="Z379" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -30495,6 +32390,11 @@
       <c r="Y380" t="n">
         <v>635.7014287783745</v>
       </c>
+      <c r="Z380" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -30574,6 +32474,11 @@
       <c r="Y381" t="n">
         <v>635.9444122493192</v>
       </c>
+      <c r="Z381" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -30653,6 +32558,11 @@
       <c r="Y382" t="n">
         <v>636.1878789288629</v>
       </c>
+      <c r="Z382" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -30732,6 +32642,11 @@
       <c r="Y383" t="n">
         <v>636.431734941556</v>
       </c>
+      <c r="Z383" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -30811,6 +32726,11 @@
       <c r="Y384" t="n">
         <v>636.6758861133676</v>
       </c>
+      <c r="Z384" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -30890,6 +32810,11 @@
       <c r="Y385" t="n">
         <v>636.9202380139942</v>
       </c>
+      <c r="Z385" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -30969,6 +32894,11 @@
       <c r="Y386" t="n">
         <v>637.1646959987004</v>
       </c>
+      <c r="Z386" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -31048,6 +32978,11 @@
       <c r="Y387" t="n">
         <v>637.409165250347</v>
       </c>
+      <c r="Z387" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -31127,6 +33062,11 @@
       <c r="Y388" t="n">
         <v>637.6535508211571</v>
       </c>
+      <c r="Z388" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -31206,6 +33146,11 @@
       <c r="Y389" t="n">
         <v>637.8977576750428</v>
       </c>
+      <c r="Z389" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -31285,6 +33230,11 @@
       <c r="Y390" t="n">
         <v>638.1416907295398</v>
       </c>
+      <c r="Z390" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -31364,6 +33314,11 @@
       <c r="Y391" t="n">
         <v>638.3852548976233</v>
       </c>
+      <c r="Z391" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -31443,6 +33398,11 @@
       <c r="Y392" t="n">
         <v>638.6283551298891</v>
       </c>
+      <c r="Z392" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -31522,6 +33482,11 @@
       <c r="Y393" t="n">
         <v>638.870896456243</v>
       </c>
+      <c r="Z393" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -31601,6 +33566,11 @@
       <c r="Y394" t="n">
         <v>639.1127840279212</v>
       </c>
+      <c r="Z394" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -31680,6 +33650,11 @@
       <c r="Y395" t="n">
         <v>639.3539231589622</v>
       </c>
+      <c r="Z395" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -31759,6 +33734,11 @@
       <c r="Y396" t="n">
         <v>639.5942193678799</v>
       </c>
+      <c r="Z396" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -31838,6 +33818,11 @@
       <c r="Y397" t="n">
         <v>639.8335784191839</v>
       </c>
+      <c r="Z397" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -31917,6 +33902,11 @@
       <c r="Y398" t="n">
         <v>640.0719063644431</v>
       </c>
+      <c r="Z398" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -31996,6 +33986,11 @@
       <c r="Y399" t="n">
         <v>640.3091095835828</v>
       </c>
+      <c r="Z399" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -32075,6 +34070,11 @@
       <c r="Y400" t="n">
         <v>640.5450948256661</v>
       </c>
+      <c r="Z400" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -32154,6 +34154,11 @@
       <c r="Y401" t="n">
         <v>640.5553023615607</v>
       </c>
+      <c r="Z401" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -32233,6 +34238,11 @@
       <c r="Y402" t="n">
         <v>626.3215837386858</v>
       </c>
+      <c r="Z402" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -32312,6 +34322,11 @@
       <c r="Y403" t="n">
         <v>626.4471517855036</v>
       </c>
+      <c r="Z403" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -32391,6 +34406,11 @@
       <c r="Y404" t="n">
         <v>626.5778558692178</v>
       </c>
+      <c r="Z404" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -32470,6 +34490,11 @@
       <c r="Y405" t="n">
         <v>626.7123941280308</v>
       </c>
+      <c r="Z405" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -32549,6 +34574,11 @@
       <c r="Y406" t="n">
         <v>626.8507272236143</v>
       </c>
+      <c r="Z406" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -32628,6 +34658,11 @@
       <c r="Y407" t="n">
         <v>626.9928139992053</v>
       </c>
+      <c r="Z407" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -32707,6 +34742,11 @@
       <c r="Y408" t="n">
         <v>627.1386114972502</v>
       </c>
+      <c r="Z408" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -32786,6 +34826,11 @@
       <c r="Y409" t="n">
         <v>627.2880749779034</v>
       </c>
+      <c r="Z409" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -32865,6 +34910,11 @@
       <c r="Y410" t="n">
         <v>627.4411579383246</v>
       </c>
+      <c r="Z410" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -32944,6 +34994,11 @@
       <c r="Y411" t="n">
         <v>627.5978121328469</v>
       </c>
+      <c r="Z411" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -33023,6 +35078,11 @@
       <c r="Y412" t="n">
         <v>627.7579875940651</v>
       </c>
+      <c r="Z412" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -33102,6 +35162,11 @@
       <c r="Y413" t="n">
         <v>627.9216326547346</v>
       </c>
+      <c r="Z413" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -33181,6 +35246,11 @@
       <c r="Y414" t="n">
         <v>628.0886939703798</v>
       </c>
+      <c r="Z414" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -33260,6 +35330,11 @@
       <c r="Y415" t="n">
         <v>628.2591165428588</v>
       </c>
+      <c r="Z415" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -33339,6 +35414,11 @@
       <c r="Y416" t="n">
         <v>628.4328437446641</v>
       </c>
+      <c r="Z416" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -33418,6 +35498,11 @@
       <c r="Y417" t="n">
         <v>628.609817343922</v>
       </c>
+      <c r="Z417" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -33497,6 +35582,11 @@
       <c r="Y418" t="n">
         <v>628.789977530412</v>
       </c>
+      <c r="Z418" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -33576,6 +35666,11 @@
       <c r="Y419" t="n">
         <v>628.9732629420309</v>
       </c>
+      <c r="Z419" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -33655,6 +35750,11 @@
       <c r="Y420" t="n">
         <v>629.1596106921093</v>
       </c>
+      <c r="Z420" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -33734,6 +35834,11 @@
       <c r="Y421" t="n">
         <v>629.3489563976168</v>
       </c>
+      <c r="Z421" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -33813,6 +35918,11 @@
       <c r="Y422" t="n">
         <v>629.5412342079072</v>
       </c>
+      <c r="Z422" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -33892,6 +36002,11 @@
       <c r="Y423" t="n">
         <v>629.7363768340251</v>
       </c>
+      <c r="Z423" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -33971,6 +36086,11 @@
       <c r="Y424" t="n">
         <v>629.9343155790217</v>
       </c>
+      <c r="Z424" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -34050,6 +36170,11 @@
       <c r="Y425" t="n">
         <v>630.1349803687863</v>
       </c>
+      <c r="Z425" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -34129,6 +36254,11 @@
       <c r="Y426" t="n">
         <v>630.3382997832754</v>
       </c>
+      <c r="Z426" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -34208,6 +36338,11 @@
       <c r="Y427" t="n">
         <v>630.5442010888708</v>
       </c>
+      <c r="Z427" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -34287,6 +36422,11 @@
       <c r="Y428" t="n">
         <v>630.75261027077</v>
       </c>
+      <c r="Z428" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -34366,6 +36506,11 @@
       <c r="Y429" t="n">
         <v>630.9634520664716</v>
       </c>
+      <c r="Z429" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -34445,6 +36590,11 @@
       <c r="Y430" t="n">
         <v>631.1766499996583</v>
       </c>
+      <c r="Z430" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -34524,6 +36674,11 @@
       <c r="Y431" t="n">
         <v>631.3921264143065</v>
       </c>
+      <c r="Z431" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -34603,6 +36758,11 @@
       <c r="Y432" t="n">
         <v>631.6098025099379</v>
       </c>
+      <c r="Z432" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -34682,6 +36842,11 @@
       <c r="Y433" t="n">
         <v>631.829598376926</v>
       </c>
+      <c r="Z433" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -34761,6 +36926,11 @@
       <c r="Y434" t="n">
         <v>632.0514330324116</v>
       </c>
+      <c r="Z434" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -34840,6 +37010,11 @@
       <c r="Y435" t="n">
         <v>632.2752244568773</v>
       </c>
+      <c r="Z435" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -34919,6 +37094,11 @@
       <c r="Y436" t="n">
         <v>632.5008896309444</v>
       </c>
+      <c r="Z436" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -34998,6 +37178,11 @@
       <c r="Y437" t="n">
         <v>632.7283445727053</v>
       </c>
+      <c r="Z437" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -35077,6 +37262,11 @@
       <c r="Y438" t="n">
         <v>632.9575043754999</v>
       </c>
+      <c r="Z438" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -35156,6 +37346,11 @@
       <c r="Y439" t="n">
         <v>633.1882832462047</v>
       </c>
+      <c r="Z439" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -35235,6 +37430,11 @@
       <c r="Y440" t="n">
         <v>633.4205945434431</v>
       </c>
+      <c r="Z440" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -35314,6 +37514,11 @@
       <c r="Y441" t="n">
         <v>633.6543508169162</v>
       </c>
+      <c r="Z441" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -35393,6 +37598,11 @@
       <c r="Y442" t="n">
         <v>633.8894638463729</v>
       </c>
+      <c r="Z442" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -35472,6 +37682,11 @@
       <c r="Y443" t="n">
         <v>634.1258446813008</v>
       </c>
+      <c r="Z443" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -35551,6 +37766,11 @@
       <c r="Y444" t="n">
         <v>634.3634036806874</v>
       </c>
+      <c r="Z444" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -35630,6 +37850,11 @@
       <c r="Y445" t="n">
         <v>634.6020505533942</v>
       </c>
+      <c r="Z445" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -35709,6 +37934,11 @@
       <c r="Y446" t="n">
         <v>634.8416943983726</v>
       </c>
+      <c r="Z446" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -35788,6 +38018,11 @@
       <c r="Y447" t="n">
         <v>635.0822437454104</v>
       </c>
+      <c r="Z447" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -35867,6 +38102,11 @@
       <c r="Y448" t="n">
         <v>635.3236065961413</v>
       </c>
+      <c r="Z448" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -35946,6 +38186,11 @@
       <c r="Y449" t="n">
         <v>635.5656904649338</v>
       </c>
+      <c r="Z449" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -36025,6 +38270,11 @@
       <c r="Y450" t="n">
         <v>635.8084024203299</v>
       </c>
+      <c r="Z450" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -36104,6 +38354,11 @@
       <c r="Y451" t="n">
         <v>636.0516491264228</v>
       </c>
+      <c r="Z451" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -36183,6 +38438,11 @@
       <c r="Y452" t="n">
         <v>636.2953368844245</v>
       </c>
+      <c r="Z452" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -36262,6 +38522,11 @@
       <c r="Y453" t="n">
         <v>636.5393716744453</v>
       </c>
+      <c r="Z453" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -36341,6 +38606,11 @@
       <c r="Y454" t="n">
         <v>636.7836591972357</v>
       </c>
+      <c r="Z454" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -36420,6 +38690,11 @@
       <c r="Y455" t="n">
         <v>637.028104916099</v>
       </c>
+      <c r="Z455" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -36499,6 +38774,11 @@
       <c r="Y456" t="n">
         <v>637.2726140988274</v>
       </c>
+      <c r="Z456" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -36578,6 +38858,11 @@
       <c r="Y457" t="n">
         <v>637.5170918598267</v>
       </c>
+      <c r="Z457" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -36657,6 +38942,11 @@
       <c r="Y458" t="n">
         <v>637.7614432018981</v>
       </c>
+      <c r="Z458" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -36736,6 +39026,11 @@
       <c r="Y459" t="n">
         <v>638.005573058438</v>
       </c>
+      <c r="Z459" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -36815,6 +39110,11 @@
       <c r="Y460" t="n">
         <v>638.2493863355159</v>
       </c>
+      <c r="Z460" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -36894,6 +39194,11 @@
       <c r="Y461" t="n">
         <v>638.4927879536268</v>
       </c>
+      <c r="Z461" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -36973,6 +39278,11 @@
       <c r="Y462" t="n">
         <v>638.7356828896911</v>
       </c>
+      <c r="Z462" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -37052,6 +39362,11 @@
       <c r="Y463" t="n">
         <v>638.9779762191104</v>
       </c>
+      <c r="Z463" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -37131,6 +39446,11 @@
       <c r="Y464" t="n">
         <v>639.2195731571995</v>
       </c>
+      <c r="Z464" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -37210,6 +39530,11 @@
       <c r="Y465" t="n">
         <v>639.4603791010085</v>
       </c>
+      <c r="Z465" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -37289,6 +39614,11 @@
       <c r="Y466" t="n">
         <v>639.7002996708649</v>
       </c>
+      <c r="Z466" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -37368,6 +39698,11 @@
       <c r="Y467" t="n">
         <v>639.9392407516696</v>
       </c>
+      <c r="Z467" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -37447,6 +39782,11 @@
       <c r="Y468" t="n">
         <v>640.177108534039</v>
       </c>
+      <c r="Z468" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -37526,6 +39866,11 @@
       <c r="Y469" t="n">
         <v>640.4138095554521</v>
       </c>
+      <c r="Z469" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -37605,6 +39950,11 @@
       <c r="Y470" t="n">
         <v>640.6492507410585</v>
       </c>
+      <c r="Z470" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -37684,6 +40034,11 @@
       <c r="Y471" t="n">
         <v>640.8833394440414</v>
       </c>
+      <c r="Z471" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -37763,6 +40118,11 @@
       <c r="Y472" t="n">
         <v>641.1159834863588</v>
       </c>
+      <c r="Z472" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -37842,6 +40202,11 @@
       <c r="Y473" t="n">
         <v>641.3470911984941</v>
       </c>
+      <c r="Z473" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -37921,6 +40286,11 @@
       <c r="Y474" t="n">
         <v>641.5765714595177</v>
       </c>
+      <c r="Z474" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -38000,6 +40370,11 @@
       <c r="Y475" t="n">
         <v>641.8043337364804</v>
       </c>
+      <c r="Z475" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -38079,6 +40454,11 @@
       <c r="Y476" t="n">
         <v>642.0302881236921</v>
       </c>
+      <c r="Z476" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -38158,6 +40538,11 @@
       <c r="Y477" t="n">
         <v>642.2543453816899</v>
       </c>
+      <c r="Z477" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -38237,6 +40622,11 @@
       <c r="Y478" t="n">
         <v>642.4764169759021</v>
       </c>
+      <c r="Z478" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -38316,6 +40706,11 @@
       <c r="Y479" t="n">
         <v>642.696415114553</v>
       </c>
+      <c r="Z479" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -38395,6 +40790,11 @@
       <c r="Y480" t="n">
         <v>642.9142527867542</v>
       </c>
+      <c r="Z480" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -38474,6 +40874,11 @@
       <c r="Y481" t="n">
         <v>642.9218743362662</v>
       </c>
+      <c r="Z481" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -38553,6 +40958,11 @@
       <c r="Y482" t="n">
         <v>627.110262377331</v>
       </c>
+      <c r="Z482" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -38632,6 +41042,11 @@
       <c r="Y483" t="n">
         <v>627.2467801316607</v>
       </c>
+      <c r="Z483" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -38711,6 +41126,11 @@
       <c r="Y484" t="n">
         <v>627.3989901924379</v>
       </c>
+      <c r="Z484" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -38790,6 +41210,11 @@
       <c r="Y485" t="n">
         <v>627.5547840065443</v>
       </c>
+      <c r="Z485" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -38869,6 +41294,11 @@
       <c r="Y486" t="n">
         <v>627.7141120282187</v>
       </c>
+      <c r="Z486" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -38948,6 +41378,11 @@
       <c r="Y487" t="n">
         <v>627.8769230062068</v>
       </c>
+      <c r="Z487" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -39027,6 +41462,11 @@
       <c r="Y488" t="n">
         <v>628.0431640064268</v>
       </c>
+      <c r="Z488" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -39106,6 +41546,11 @@
       <c r="Y489" t="n">
         <v>628.212780435039</v>
       </c>
+      <c r="Z489" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -39185,6 +41630,11 @@
       <c r="Y490" t="n">
         <v>628.3857160627974</v>
       </c>
+      <c r="Z490" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -39264,6 +41714,11 @@
       <c r="Y491" t="n">
         <v>628.5619130497885</v>
       </c>
+      <c r="Z491" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -39343,6 +41798,11 @@
       <c r="Y492" t="n">
         <v>628.7413119711123</v>
       </c>
+      <c r="Z492" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -39422,6 +41882,11 @@
       <c r="Y493" t="n">
         <v>628.9238518432862</v>
       </c>
+      <c r="Z493" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -39501,6 +41966,11 @@
       <c r="Y494" t="n">
         <v>629.1094701515773</v>
       </c>
+      <c r="Z494" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -39580,6 +42050,11 @@
       <c r="Y495" t="n">
         <v>629.2981028776252</v>
       </c>
+      <c r="Z495" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -39659,6 +42134,11 @@
       <c r="Y496" t="n">
         <v>629.489684528203</v>
       </c>
+      <c r="Z496" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -39738,6 +42218,11 @@
       <c r="Y497" t="n">
         <v>629.6841481645392</v>
       </c>
+      <c r="Z497" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -39817,6 +42302,11 @@
       <c r="Y498" t="n">
         <v>629.8814254322382</v>
       </c>
+      <c r="Z498" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -39896,6 +42386,11 @@
       <c r="Y499" t="n">
         <v>630.081446591886</v>
       </c>
+      <c r="Z499" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -39975,6 +42470,11 @@
       <c r="Y500" t="n">
         <v>630.2841405504115</v>
       </c>
+      <c r="Z500" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -40054,6 +42554,11 @@
       <c r="Y501" t="n">
         <v>630.4894348930366</v>
       </c>
+      <c r="Z501" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -40133,6 +42638,11 @@
       <c r="Y502" t="n">
         <v>630.697255915669</v>
       </c>
+      <c r="Z502" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -40212,6 +42722,11 @@
       <c r="Y503" t="n">
         <v>630.9075286581882</v>
       </c>
+      <c r="Z503" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -40291,6 +42806,11 @@
       <c r="Y504" t="n">
         <v>631.1201769380556</v>
       </c>
+      <c r="Z504" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -40370,6 +42890,11 @@
       <c r="Y505" t="n">
         <v>631.33512338456</v>
       </c>
+      <c r="Z505" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -40449,6 +42974,11 @@
       <c r="Y506" t="n">
         <v>631.5522894738391</v>
       </c>
+      <c r="Z506" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -40528,6 +43058,11 @@
       <c r="Y507" t="n">
         <v>631.771595563813</v>
       </c>
+      <c r="Z507" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -40607,6 +43142,11 @@
       <c r="Y508" t="n">
         <v>631.9929609304372</v>
       </c>
+      <c r="Z508" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -40686,6 +43226,11 @@
       <c r="Y509" t="n">
         <v>632.2163038036891</v>
       </c>
+      <c r="Z509" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -40765,6 +43310,11 @@
       <c r="Y510" t="n">
         <v>632.441541404658</v>
       </c>
+      <c r="Z510" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -40844,6 +43394,11 @@
       <c r="Y511" t="n">
         <v>632.6685899823844</v>
       </c>
+      <c r="Z511" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -40923,6 +43478,11 @@
       <c r="Y512" t="n">
         <v>632.8973648519791</v>
       </c>
+      <c r="Z512" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -41002,6 +43562,11 @@
       <c r="Y513" t="n">
         <v>633.1277804323488</v>
       </c>
+      <c r="Z513" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -41081,6 +43646,11 @@
       <c r="Y514" t="n">
         <v>633.3597502846951</v>
       </c>
+      <c r="Z514" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -41160,6 +43730,11 @@
       <c r="Y515" t="n">
         <v>633.593187151547</v>
       </c>
+      <c r="Z515" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -41239,6 +43814,11 @@
       <c r="Y516" t="n">
         <v>633.8280029956493</v>
       </c>
+      <c r="Z516" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -41318,6 +43898,11 @@
       <c r="Y517" t="n">
         <v>634.0641090396738</v>
       </c>
+      <c r="Z517" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -41397,6 +43982,11 @@
       <c r="Y518" t="n">
         <v>634.30141580592</v>
       </c>
+      <c r="Z518" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -41476,6 +44066,11 @@
       <c r="Y519" t="n">
         <v>634.5398331564779</v>
       </c>
+      <c r="Z519" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -41555,6 +44150,11 @@
       <c r="Y520" t="n">
         <v>634.779270333487</v>
       </c>
+      <c r="Z520" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -41634,6 +44234,11 @@
       <c r="Y521" t="n">
         <v>635.0196359998567</v>
       </c>
+      <c r="Z521" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -41713,6 +44318,11 @@
       <c r="Y522" t="n">
         <v>635.2608382801567</v>
       </c>
+      <c r="Z522" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -41792,6 +44402,11 @@
       <c r="Y523" t="n">
         <v>635.5027848014113</v>
       </c>
+      <c r="Z523" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -41871,6 +44486,11 @@
       <c r="Y524" t="n">
         <v>635.7453827346217</v>
       </c>
+      <c r="Z524" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -41950,6 +44570,11 @@
       <c r="Y525" t="n">
         <v>635.9885388360286</v>
       </c>
+      <c r="Z525" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -42029,6 +44654,11 @@
       <c r="Y526" t="n">
         <v>636.2321594886561</v>
       </c>
+      <c r="Z526" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -42108,6 +44738,11 @@
       <c r="Y527" t="n">
         <v>636.4761507440819</v>
       </c>
+      <c r="Z527" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -42187,6 +44822,11 @@
       <c r="Y528" t="n">
         <v>636.7204183641066</v>
       </c>
+      <c r="Z528" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -42266,6 +44906,11 @@
       <c r="Y529" t="n">
         <v>636.9648678627728</v>
       </c>
+      <c r="Z529" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -42345,6 +44990,11 @@
       <c r="Y530" t="n">
         <v>637.2094045481325</v>
       </c>
+      <c r="Z530" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -42424,6 +45074,11 @@
       <c r="Y531" t="n">
         <v>637.4539335643494</v>
       </c>
+      <c r="Z531" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -42503,6 +45158,11 @@
       <c r="Y532" t="n">
         <v>637.6983599337595</v>
       </c>
+      <c r="Z532" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -42582,6 +45242,11 @@
       <c r="Y533" t="n">
         <v>637.9425885987596</v>
       </c>
+      <c r="Z533" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -42661,6 +45326,11 @@
       <c r="Y534" t="n">
         <v>638.1865244639416</v>
       </c>
+      <c r="Z534" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -42740,6 +45410,11 @@
       <c r="Y535" t="n">
         <v>638.4300724380419</v>
       </c>
+      <c r="Z535" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -42819,6 +45494,11 @@
       <c r="Y536" t="n">
         <v>638.6731374758238</v>
       </c>
+      <c r="Z536" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -42898,6 +45578,11 @@
       <c r="Y537" t="n">
         <v>638.9156246200739</v>
       </c>
+      <c r="Z537" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -42977,6 +45662,11 @@
       <c r="Y538" t="n">
         <v>639.1574390431856</v>
       </c>
+      <c r="Z538" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -43056,6 +45746,11 @@
       <c r="Y539" t="n">
         <v>639.3833546281387</v>
       </c>
+      <c r="Z539" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -43135,6 +45830,11 @@
       <c r="Y540" t="n">
         <v>641.1103952969409</v>
       </c>
+      <c r="Z540" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -43214,6 +45914,11 @@
       <c r="Y541" t="n">
         <v>640.8894095079194</v>
       </c>
+      <c r="Z541" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -43293,6 +45998,11 @@
       <c r="Y542" t="n">
         <v>640.6574595430734</v>
       </c>
+      <c r="Z542" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -43372,6 +46082,11 @@
       <c r="Y543" t="n">
         <v>640.424238866183</v>
       </c>
+      <c r="Z543" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -43451,6 +46166,11 @@
       <c r="Y544" t="n">
         <v>640.1898401965245</v>
       </c>
+      <c r="Z544" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -43530,6 +46250,11 @@
       <c r="Y545" t="n">
         <v>639.9543566335211</v>
       </c>
+      <c r="Z545" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -43609,6 +46334,11 @@
       <c r="Y546" t="n">
         <v>639.7178816160246</v>
       </c>
+      <c r="Z546" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -43688,6 +46418,11 @@
       <c r="Y547" t="n">
         <v>639.4805088816016</v>
       </c>
+      <c r="Z547" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -43767,6 +46502,11 @@
       <c r="Y548" t="n">
         <v>639.2423324249074</v>
       </c>
+      <c r="Z548" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -43846,6 +46586,11 @@
       <c r="Y549" t="n">
         <v>639.0034464566236</v>
       </c>
+      <c r="Z549" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -43925,6 +46670,11 @@
       <c r="Y550" t="n">
         <v>638.7639453620479</v>
       </c>
+      <c r="Z550" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -44004,6 +46754,11 @@
       <c r="Y551" t="n">
         <v>638.5239236593015</v>
       </c>
+      <c r="Z551" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -44083,6 +46838,11 @@
       <c r="Y552" t="n">
         <v>638.2834759576763</v>
       </c>
+      <c r="Z552" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -44162,6 +46922,11 @@
       <c r="Y553" t="n">
         <v>638.0426969159289</v>
       </c>
+      <c r="Z553" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -44241,6 +47006,11 @@
       <c r="Y554" t="n">
         <v>637.8016812004682</v>
       </c>
+      <c r="Z554" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -44320,6 +47090,11 @@
       <c r="Y555" t="n">
         <v>637.5605234431238</v>
       </c>
+      <c r="Z555" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -44399,6 +47174,11 @@
       <c r="Y556" t="n">
         <v>637.3193181995774</v>
       </c>
+      <c r="Z556" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -44478,6 +47258,11 @@
       <c r="Y557" t="n">
         <v>637.0781599073438</v>
       </c>
+      <c r="Z557" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
@@ -44557,6 +47342,11 @@
       <c r="Y558" t="n">
         <v>636.8371428435825</v>
       </c>
+      <c r="Z558" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -44636,6 +47426,11 @@
       <c r="Y559" t="n">
         <v>636.5963610834689</v>
       </c>
+      <c r="Z559" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -44715,6 +47510,11 @@
       <c r="Y560" t="n">
         <v>636.3559084581992</v>
       </c>
+      <c r="Z560" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -44794,6 +47594,11 @@
       <c r="Y561" t="n">
         <v>636.1158785132701</v>
       </c>
+      <c r="Z561" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -44873,6 +47678,11 @@
       <c r="Y562" t="n">
         <v>635.8763644666509</v>
       </c>
+      <c r="Z562" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -44952,6 +47762,11 @@
       <c r="Y563" t="n">
         <v>635.6374591673432</v>
       </c>
+      <c r="Z563" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -45031,6 +47846,11 @@
       <c r="Y564" t="n">
         <v>635.3992550536685</v>
       </c>
+      <c r="Z564" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -45110,6 +47930,11 @@
       <c r="Y565" t="n">
         <v>635.1618441123358</v>
       </c>
+      <c r="Z565" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -45189,6 +48014,11 @@
       <c r="Y566" t="n">
         <v>634.9253178368788</v>
       </c>
+      <c r="Z566" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -45268,6 +48098,11 @@
       <c r="Y567" t="n">
         <v>634.6897671868827</v>
       </c>
+      <c r="Z567" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -45347,6 +48182,11 @@
       <c r="Y568" t="n">
         <v>634.4552825472723</v>
       </c>
+      <c r="Z568" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -45426,6 +48266,11 @@
       <c r="Y569" t="n">
         <v>634.2219536876815</v>
       </c>
+      <c r="Z569" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -45505,6 +48350,11 @@
       <c r="Y570" t="n">
         <v>633.98986972213</v>
       </c>
+      <c r="Z570" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -45584,6 +48434,11 @@
       <c r="Y571" t="n">
         <v>633.7591190692082</v>
       </c>
+      <c r="Z571" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -45663,6 +48518,11 @@
       <c r="Y572" t="n">
         <v>633.5297894121944</v>
       </c>
+      <c r="Z572" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -45742,6 +48602,11 @@
       <c r="Y573" t="n">
         <v>633.3019676595095</v>
       </c>
+      <c r="Z573" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -45821,6 +48686,11 @@
       <c r="Y574" t="n">
         <v>633.0757399060003</v>
       </c>
+      <c r="Z574" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -45900,6 +48770,11 @@
       <c r="Y575" t="n">
         <v>632.8511913938628</v>
       </c>
+      <c r="Z575" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
@@ -45979,6 +48854,11 @@
       <c r="Y576" t="n">
         <v>632.6284064743402</v>
       </c>
+      <c r="Z576" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -46058,6 +48938,11 @@
       <c r="Y577" t="n">
         <v>632.407468569908</v>
       </c>
+      <c r="Z577" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
@@ -46137,6 +49022,11 @@
       <c r="Y578" t="n">
         <v>632.1884601364941</v>
       </c>
+      <c r="Z578" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
@@ -46216,6 +49106,11 @@
       <c r="Y579" t="n">
         <v>631.9714626264306</v>
       </c>
+      <c r="Z579" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
@@ -46295,6 +49190,11 @@
       <c r="Y580" t="n">
         <v>631.7565564516296</v>
       </c>
+      <c r="Z580" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
@@ -46374,6 +49274,11 @@
       <c r="Y581" t="n">
         <v>631.5438209476273</v>
       </c>
+      <c r="Z581" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -46453,6 +49358,11 @@
       <c r="Y582" t="n">
         <v>631.3333343374187</v>
       </c>
+      <c r="Z582" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -46532,6 +49442,11 @@
       <c r="Y583" t="n">
         <v>631.1251736965255</v>
       </c>
+      <c r="Z583" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -46611,6 +49526,11 @@
       <c r="Y584" t="n">
         <v>630.9194149181932</v>
       </c>
+      <c r="Z584" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -46690,6 +49610,11 @@
       <c r="Y585" t="n">
         <v>630.7161326790853</v>
       </c>
+      <c r="Z585" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -46769,6 +49694,11 @@
       <c r="Y586" t="n">
         <v>630.5154004057677</v>
       </c>
+      <c r="Z586" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -46848,6 +49778,11 @@
       <c r="Y587" t="n">
         <v>630.3172902416052</v>
       </c>
+      <c r="Z587" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -46927,6 +49862,11 @@
       <c r="Y588" t="n">
         <v>630.1218730143338</v>
       </c>
+      <c r="Z588" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -47006,6 +49946,11 @@
       <c r="Y589" t="n">
         <v>629.9292182041945</v>
       </c>
+      <c r="Z589" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -47085,6 +50030,11 @@
       <c r="Y590" t="n">
         <v>629.7393939126371</v>
       </c>
+      <c r="Z590" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -47164,6 +50114,11 @@
       <c r="Y591" t="n">
         <v>629.552466831919</v>
       </c>
+      <c r="Z591" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -47243,6 +50198,11 @@
       <c r="Y592" t="n">
         <v>629.368502215007</v>
       </c>
+      <c r="Z592" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -47322,6 +50282,11 @@
       <c r="Y593" t="n">
         <v>629.1875638464716</v>
       </c>
+      <c r="Z593" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -47401,6 +50366,11 @@
       <c r="Y594" t="n">
         <v>629.0097140138889</v>
       </c>
+      <c r="Z594" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
@@ -47480,6 +50450,11 @@
       <c r="Y595" t="n">
         <v>628.8350134800428</v>
       </c>
+      <c r="Z595" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -47559,6 +50534,11 @@
       <c r="Y596" t="n">
         <v>628.6635214558368</v>
       </c>
+      <c r="Z596" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -47638,6 +50618,11 @@
       <c r="Y597" t="n">
         <v>628.495295573852</v>
       </c>
+      <c r="Z597" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -47717,6 +50702,11 @@
       <c r="Y598" t="n">
         <v>628.3303918628625</v>
       </c>
+      <c r="Z598" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -47796,6 +50786,11 @@
       <c r="Y599" t="n">
         <v>628.1688647229123</v>
       </c>
+      <c r="Z599" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
@@ -47875,6 +50870,11 @@
       <c r="Y600" t="n">
         <v>628.0107669013404</v>
       </c>
+      <c r="Z600" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -47954,6 +50954,11 @@
       <c r="Y601" t="n">
         <v>627.8561494694601</v>
       </c>
+      <c r="Z601" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -48033,6 +51038,11 @@
       <c r="Y602" t="n">
         <v>627.7050618001739</v>
       </c>
+      <c r="Z602" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -48112,6 +51122,11 @@
       <c r="Y603" t="n">
         <v>627.55755154628</v>
       </c>
+      <c r="Z603" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
@@ -48191,6 +51206,11 @@
       <c r="Y604" t="n">
         <v>627.4136646197971</v>
       </c>
+      <c r="Z604" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
@@ -48270,6 +51290,11 @@
       <c r="Y605" t="n">
         <v>627.273445172011</v>
       </c>
+      <c r="Z605" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
@@ -48349,6 +51374,11 @@
       <c r="Y606" t="n">
         <v>627.1369355742347</v>
       </c>
+      <c r="Z606" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -48428,6 +51458,11 @@
       <c r="Y607" t="n">
         <v>627.00417639989</v>
       </c>
+      <c r="Z607" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
@@ -48507,6 +51542,11 @@
       <c r="Y608" t="n">
         <v>626.8771953083832</v>
       </c>
+      <c r="Z608" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
@@ -48586,6 +51626,11 @@
       <c r="Y609" t="n">
         <v>643.2736415553381</v>
       </c>
+      <c r="Z609" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
@@ -48665,6 +51710,11 @@
       <c r="Y610" t="n">
         <v>643.0675102391929</v>
       </c>
+      <c r="Z610" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
@@ -48744,6 +51794,11 @@
       <c r="Y611" t="n">
         <v>642.8527265840238</v>
       </c>
+      <c r="Z611" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
@@ -48823,6 +51878,11 @@
       <c r="Y612" t="n">
         <v>642.6357962656407</v>
       </c>
+      <c r="Z612" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
@@ -48902,6 +51962,11 @@
       <c r="Y613" t="n">
         <v>642.4168062083647</v>
       </c>
+      <c r="Z613" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
@@ -48981,6 +52046,11 @@
       <c r="Y614" t="n">
         <v>642.1958441006153</v>
       </c>
+      <c r="Z614" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -49060,6 +52130,11 @@
       <c r="Y615" t="n">
         <v>641.9729983568566</v>
       </c>
+      <c r="Z615" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
@@ -49139,6 +52214,11 @@
       <c r="Y616" t="n">
         <v>641.7483580793836</v>
       </c>
+      <c r="Z616" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
@@ -49218,6 +52298,11 @@
       <c r="Y617" t="n">
         <v>641.5220130194712</v>
       </c>
+      <c r="Z617" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
@@ -49297,6 +52382,11 @@
       <c r="Y618" t="n">
         <v>641.2940535385521</v>
       </c>
+      <c r="Z618" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
@@ -49376,6 +52466,11 @@
       <c r="Y619" t="n">
         <v>641.0645705687319</v>
       </c>
+      <c r="Z619" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
@@ -49455,6 +52550,11 @@
       <c r="Y620" t="n">
         <v>640.8336555732391</v>
       </c>
+      <c r="Z620" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
@@ -49534,6 +52634,11 @@
       <c r="Y621" t="n">
         <v>640.6014005066093</v>
       </c>
+      <c r="Z621" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
@@ -49613,6 +52718,11 @@
       <c r="Y622" t="n">
         <v>640.3678977742346</v>
       </c>
+      <c r="Z622" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
@@ -49692,6 +52802,11 @@
       <c r="Y623" t="n">
         <v>640.1332401922857</v>
       </c>
+      <c r="Z623" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
@@ -49771,6 +52886,11 @@
       <c r="Y624" t="n">
         <v>639.8975209469877</v>
       </c>
+      <c r="Z624" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -49850,6 +52970,11 @@
       <c r="Y625" t="n">
         <v>639.6608335535822</v>
       </c>
+      <c r="Z625" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
@@ -49929,6 +53054,11 @@
       <c r="Y626" t="n">
         <v>639.4232718155074</v>
       </c>
+      <c r="Z626" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
@@ -50008,6 +53138,11 @@
       <c r="Y627" t="n">
         <v>639.1849297831562</v>
       </c>
+      <c r="Z627" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
@@ -50087,6 +53222,11 @@
       <c r="Y628" t="n">
         <v>638.9459017124556</v>
       </c>
+      <c r="Z628" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
@@ -50166,6 +53306,11 @@
       <c r="Y629" t="n">
         <v>638.7062820232741</v>
       </c>
+      <c r="Z629" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
@@ -50245,6 +53390,11 @@
       <c r="Y630" t="n">
         <v>638.4661652579825</v>
       </c>
+      <c r="Z630" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
@@ -50324,6 +53474,11 @@
       <c r="Y631" t="n">
         <v>638.2256460395965</v>
       </c>
+      <c r="Z631" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
@@ -50403,6 +53558,11 @@
       <c r="Y632" t="n">
         <v>637.9848190300498</v>
       </c>
+      <c r="Z632" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
@@ -50482,6 +53642,11 @@
       <c r="Y633" t="n">
         <v>637.7437788882455</v>
       </c>
+      <c r="Z633" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
@@ -50561,6 +53726,11 @@
       <c r="Y634" t="n">
         <v>637.5026202281109</v>
       </c>
+      <c r="Z634" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
@@ -50640,6 +53810,11 @@
       <c r="Y635" t="n">
         <v>637.261437576872</v>
       </c>
+      <c r="Z635" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
@@ -50719,6 +53894,11 @@
       <c r="Y636" t="n">
         <v>637.0203253327585</v>
       </c>
+      <c r="Z636" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
@@ -50798,6 +53978,11 @@
       <c r="Y637" t="n">
         <v>636.7793777234103</v>
       </c>
+      <c r="Z637" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
@@ -50877,6 +54062,11 @@
       <c r="Y638" t="n">
         <v>636.5386887638009</v>
       </c>
+      <c r="Z638" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
@@ -50956,6 +54146,11 @@
       <c r="Y639" t="n">
         <v>636.2983522143285</v>
       </c>
+      <c r="Z639" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
@@ -51035,6 +54230,11 @@
       <c r="Y640" t="n">
         <v>636.0584615392049</v>
       </c>
+      <c r="Z640" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
@@ -51114,6 +54314,11 @@
       <c r="Y641" t="n">
         <v>635.8191098647196</v>
       </c>
+      <c r="Z641" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
@@ -51193,6 +54398,11 @@
       <c r="Y642" t="n">
         <v>635.5803899376758</v>
       </c>
+      <c r="Z642" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
@@ -51272,6 +54482,11 @@
       <c r="Y643" t="n">
         <v>635.3423940838029</v>
       </c>
+      <c r="Z643" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
@@ -51351,6 +54566,11 @@
       <c r="Y644" t="n">
         <v>635.1052141667475</v>
       </c>
+      <c r="Z644" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
@@ -51430,6 +54650,11 @@
       <c r="Y645" t="n">
         <v>634.868941546795</v>
       </c>
+      <c r="Z645" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
@@ -51509,6 +54734,11 @@
       <c r="Y646" t="n">
         <v>634.6336670398964</v>
       </c>
+      <c r="Z646" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
@@ -51588,6 +54818,11 @@
       <c r="Y647" t="n">
         <v>634.3994808771233</v>
       </c>
+      <c r="Z647" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
@@ -51667,6 +54902,11 @@
       <c r="Y648" t="n">
         <v>634.1664726641372</v>
       </c>
+      <c r="Z648" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
@@ -51746,6 +54986,11 @@
       <c r="Y649" t="n">
         <v>633.9347313409651</v>
       </c>
+      <c r="Z649" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
@@ -51825,6 +55070,11 @@
       <c r="Y650" t="n">
         <v>633.7043451419386</v>
       </c>
+      <c r="Z650" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
@@ -51904,6 +55154,11 @@
       <c r="Y651" t="n">
         <v>633.4754015563225</v>
       </c>
+      <c r="Z651" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
@@ -51983,6 +55238,11 @@
       <c r="Y652" t="n">
         <v>633.2479872886807</v>
       </c>
+      <c r="Z652" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
@@ -52062,6 +55322,11 @@
       <c r="Y653" t="n">
         <v>633.0221882200597</v>
       </c>
+      <c r="Z653" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
@@ -52141,6 +55406,11 @@
       <c r="Y654" t="n">
         <v>632.7980893693375</v>
       </c>
+      <c r="Z654" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
@@ -52220,6 +55490,11 @@
       <c r="Y655" t="n">
         <v>632.5757748547669</v>
       </c>
+      <c r="Z655" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
@@ -52299,6 +55574,11 @@
       <c r="Y656" t="n">
         <v>632.3553278563148</v>
       </c>
+      <c r="Z656" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
@@ -52378,6 +55658,11 @@
       <c r="Y657" t="n">
         <v>632.1368305781156</v>
       </c>
+      <c r="Z657" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
@@ -52457,6 +55742,11 @@
       <c r="Y658" t="n">
         <v>631.9203642112443</v>
       </c>
+      <c r="Z658" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
@@ -52536,6 +55826,11 @@
       <c r="Y659" t="n">
         <v>631.7060088974908</v>
       </c>
+      <c r="Z659" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
@@ -52615,6 +55910,11 @@
       <c r="Y660" t="n">
         <v>631.4938436929509</v>
       </c>
+      <c r="Z660" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
@@ -52694,6 +55994,11 @@
       <c r="Y661" t="n">
         <v>631.2839465324672</v>
       </c>
+      <c r="Z661" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
@@ -52773,6 +56078,11 @@
       <c r="Y662" t="n">
         <v>631.0763941945623</v>
       </c>
+      <c r="Z662" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
@@ -52852,6 +56162,11 @@
       <c r="Y663" t="n">
         <v>630.8712622667869</v>
       </c>
+      <c r="Z663" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
@@ -52931,6 +56246,11 @@
       <c r="Y664" t="n">
         <v>630.6686251116648</v>
       </c>
+      <c r="Z664" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
@@ -53010,6 +56330,11 @@
       <c r="Y665" t="n">
         <v>630.4685558333089</v>
       </c>
+      <c r="Z665" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
@@ -53089,6 +56414,11 @@
       <c r="Y666" t="n">
         <v>630.2711262443428</v>
       </c>
+      <c r="Z666" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
@@ -53168,6 +56498,11 @@
       <c r="Y667" t="n">
         <v>630.0764068337564</v>
       </c>
+      <c r="Z667" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
@@ -53247,6 +56582,11 @@
       <c r="Y668" t="n">
         <v>629.8844667350259</v>
       </c>
+      <c r="Z668" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
@@ -53326,6 +56666,11 @@
       <c r="Y669" t="n">
         <v>629.6953736953922</v>
       </c>
+      <c r="Z669" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
@@ -53405,6 +56750,11 @@
       <c r="Y670" t="n">
         <v>629.5091940449657</v>
       </c>
+      <c r="Z670" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
@@ -53484,6 +56834,11 @@
       <c r="Y671" t="n">
         <v>629.3259926674207</v>
       </c>
+      <c r="Z671" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
@@ -53563,6 +56918,11 @@
       <c r="Y672" t="n">
         <v>629.1458329707435</v>
       </c>
+      <c r="Z672" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
@@ -53642,6 +57002,11 @@
       <c r="Y673" t="n">
         <v>628.9687768588741</v>
       </c>
+      <c r="Z673" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
@@ -53721,6 +57086,11 @@
       <c r="Y674" t="n">
         <v>628.7948847041257</v>
       </c>
+      <c r="Z674" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
@@ -53800,6 +57170,11 @@
       <c r="Y675" t="n">
         <v>628.6242153201464</v>
       </c>
+      <c r="Z675" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
@@ -53879,6 +57254,11 @@
       <c r="Y676" t="n">
         <v>628.4568259359463</v>
       </c>
+      <c r="Z676" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
@@ -53958,6 +57338,11 @@
       <c r="Y677" t="n">
         <v>628.2927721703315</v>
       </c>
+      <c r="Z677" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
@@ -54037,6 +57422,11 @@
       <c r="Y678" t="n">
         <v>628.1321080072929</v>
       </c>
+      <c r="Z678" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
@@ -54116,6 +57506,11 @@
       <c r="Y679" t="n">
         <v>627.9748857722024</v>
       </c>
+      <c r="Z679" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
@@ -54195,6 +57590,11 @@
       <c r="Y680" t="n">
         <v>627.8211561087588</v>
       </c>
+      <c r="Z680" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
@@ -54274,6 +57674,11 @@
       <c r="Y681" t="n">
         <v>627.6709679568089</v>
       </c>
+      <c r="Z681" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
@@ -54353,6 +57758,11 @@
       <c r="Y682" t="n">
         <v>627.5243685307131</v>
       </c>
+      <c r="Z682" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
@@ -54432,6 +57842,11 @@
       <c r="Y683" t="n">
         <v>627.3814032990613</v>
       </c>
+      <c r="Z683" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
@@ -54511,6 +57926,11 @@
       <c r="Y684" t="n">
         <v>627.242115964832</v>
       </c>
+      <c r="Z684" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
@@ -54589,6 +58009,11 @@
       </c>
       <c r="Y685" t="n">
         <v>627.2332623934451</v>
+      </c>
+      <c r="Z685" t="inlineStr">
+        <is>
+          <t>BPSK</t>
+        </is>
       </c>
     </row>
   </sheetData>
